--- a/Instructure/Instructure CAIQ.xlsx
+++ b/Instructure/Instructure CAIQ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gary.denne/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9593BB45-D4C3-6244-88E7-C7F545350F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE76F8E-1E9F-DE41-B67A-FAAB937FC6A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="1" r:id="rId1"/>
@@ -6689,9 +6689,6 @@
 Instructure welcomes customer participation in our crowd-sourced bug bounty program facilitated by BugCrowd.</t>
   </si>
   <si>
-    <t>Inbound and outbound traffic (including through our API) is encrypted using TLS forward-secrecy-compliant SSL cipher suites (e.g. ECDHE-ECDSA-AES128-GCM-SHA256) to ensure that all personally-identifiable information, credentials exchange, page requests, and session data are secure. The acceptable cipher suite list is constantly maintained to ensure that no vulnerabilities are present. Data at rest is encrypted using the AES-GCM 256-bit algorithm.</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -7160,6 +7157,9 @@
   </si>
   <si>
     <t>Customers of our platform are in complete control of their organizational access.</t>
+  </si>
+  <si>
+    <t>Inbound and outbound traffic (including through our API) is encrypted using TLS forward-secrecy-compliant SSL cipher suites (e.g. ECDHE-RSA-AES128-GCM-SHA256 / TLS_AES_128_GCM_SHA256) to ensure that all personally-identifiable information, credentials exchange, page requests, and session data are secure. The acceptable cipher suite list is constantly maintained to ensure that no vulnerabilities are present. Data at rest is encrypted using the AES-GCM 256-bit algorithm.</t>
   </si>
 </sst>
 </file>
@@ -7447,12 +7447,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -7463,6 +7457,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7984,27 +7984,27 @@
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>1173</v>
-      </c>
-      <c r="D1" s="14" t="s">
+      <c r="C1" s="18" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>1173</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>1173</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>1173</v>
-      </c>
-      <c r="D2" s="15" t="s">
+      <c r="B2" s="19" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D2" s="19" t="s">
         <v>1173</v>
       </c>
     </row>
@@ -8023,72 +8023,72 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>1173</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>1173</v>
-      </c>
-      <c r="D4" s="15" t="s">
+      <c r="B4" s="19" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D4" s="19" t="s">
         <v>1173</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>1173</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>1173</v>
-      </c>
-      <c r="D5" s="16" t="s">
+      <c r="B5" s="14" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>1173</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="96" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>1173</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>1173</v>
-      </c>
-      <c r="D6" s="16" t="s">
+      <c r="B6" s="14" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>1173</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>1173</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>1173</v>
-      </c>
-      <c r="D7" s="16" t="s">
+      <c r="B7" s="14" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>1173</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>1173</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>1173</v>
-      </c>
-      <c r="D8" s="16" t="s">
+      <c r="B8" s="14" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>1173</v>
       </c>
     </row>
@@ -8107,30 +8107,30 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>1173</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>1173</v>
-      </c>
-      <c r="D10" s="17" t="s">
+      <c r="B10" s="15" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D10" s="15" t="s">
         <v>1173</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="16" t="s">
-        <v>1173</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>1173</v>
-      </c>
-      <c r="D11" s="16" t="s">
+      <c r="B11" s="14" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D11" s="14" t="s">
         <v>1173</v>
       </c>
     </row>
@@ -8149,44 +8149,44 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="17" t="s">
-        <v>1173</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>1173</v>
-      </c>
-      <c r="D13" s="17" t="s">
+      <c r="B13" s="15" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D13" s="15" t="s">
         <v>1173</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="16" t="s">
-        <v>1173</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>1173</v>
-      </c>
-      <c r="D14" s="16" t="s">
+      <c r="B14" s="14" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D14" s="14" t="s">
         <v>1173</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="16" t="s">
-        <v>1173</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>1173</v>
-      </c>
-      <c r="D15" s="16" t="s">
+      <c r="B15" s="14" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>1173</v>
       </c>
     </row>
@@ -8205,142 +8205,142 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="17" t="s">
-        <v>1173</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>1173</v>
-      </c>
-      <c r="D17" s="17" t="s">
+      <c r="B17" s="15" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D17" s="15" t="s">
         <v>1173</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="16" t="s">
-        <v>1173</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>1173</v>
-      </c>
-      <c r="D18" s="16" t="s">
+      <c r="B18" s="14" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D18" s="14" t="s">
         <v>1173</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="16" t="s">
-        <v>1173</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>1173</v>
-      </c>
-      <c r="D19" s="16" t="s">
+      <c r="B19" s="14" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D19" s="14" t="s">
         <v>1173</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="16" t="s">
-        <v>1173</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>1173</v>
-      </c>
-      <c r="D20" s="16" t="s">
+      <c r="B20" s="14" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D20" s="14" t="s">
         <v>1173</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="16" t="s">
-        <v>1173</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>1173</v>
-      </c>
-      <c r="D21" s="16" t="s">
+      <c r="B21" s="14" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D21" s="14" t="s">
         <v>1173</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="16" t="s">
-        <v>1173</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>1173</v>
-      </c>
-      <c r="D22" s="16" t="s">
+      <c r="B22" s="14" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D22" s="14" t="s">
         <v>1173</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="16" t="s">
-        <v>1173</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>1173</v>
-      </c>
-      <c r="D23" s="16" t="s">
+      <c r="B23" s="14" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D23" s="14" t="s">
         <v>1173</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="16" t="s">
-        <v>1173</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>1173</v>
-      </c>
-      <c r="D24" s="16" t="s">
+      <c r="B24" s="14" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D24" s="14" t="s">
         <v>1173</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="64" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="16" t="s">
-        <v>1173</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>1173</v>
-      </c>
-      <c r="D25" s="16" t="s">
+      <c r="B25" s="14" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D25" s="14" t="s">
         <v>1173</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="16" t="s">
-        <v>1173</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>1173</v>
-      </c>
-      <c r="D26" s="16" t="s">
+      <c r="B26" s="14" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D26" s="14" t="s">
         <v>1173</v>
       </c>
     </row>
@@ -8359,114 +8359,114 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="17" t="s">
-        <v>1173</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>1173</v>
-      </c>
-      <c r="D28" s="17" t="s">
+      <c r="B28" s="15" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D28" s="15" t="s">
         <v>1173</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="16" t="s">
-        <v>1173</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>1173</v>
-      </c>
-      <c r="D29" s="16" t="s">
+      <c r="B29" s="14" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D29" s="14" t="s">
         <v>1173</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="16" t="s">
-        <v>1173</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>1173</v>
-      </c>
-      <c r="D30" s="16" t="s">
+      <c r="B30" s="14" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D30" s="14" t="s">
         <v>1173</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="16" t="s">
-        <v>1173</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>1173</v>
-      </c>
-      <c r="D31" s="16" t="s">
+      <c r="B31" s="14" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D31" s="14" t="s">
         <v>1173</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="16" t="s">
-        <v>1173</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>1173</v>
-      </c>
-      <c r="D32" s="16" t="s">
+      <c r="B32" s="14" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D32" s="14" t="s">
         <v>1173</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="16" t="s">
-        <v>1173</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>1173</v>
-      </c>
-      <c r="D33" s="16" t="s">
+      <c r="B33" s="14" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D33" s="14" t="s">
         <v>1173</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="16" t="s">
-        <v>1173</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>1173</v>
-      </c>
-      <c r="D34" s="16" t="s">
+      <c r="B34" s="14" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D34" s="14" t="s">
         <v>1173</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="16" t="s">
-        <v>1173</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>1173</v>
-      </c>
-      <c r="D35" s="16" t="s">
+      <c r="B35" s="14" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D35" s="14" t="s">
         <v>1173</v>
       </c>
     </row>
@@ -8485,30 +8485,30 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="17" t="s">
+      <c r="A37" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="17" t="s">
-        <v>1173</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>1173</v>
-      </c>
-      <c r="D37" s="17" t="s">
+      <c r="B37" s="15" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D37" s="15" t="s">
         <v>1173</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B38" s="16" t="s">
-        <v>1173</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>1173</v>
-      </c>
-      <c r="D38" s="16" t="s">
+      <c r="B38" s="14" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D38" s="14" t="s">
         <v>1173</v>
       </c>
     </row>
@@ -8527,30 +8527,30 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="17" t="s">
+      <c r="A40" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B40" s="17" t="s">
-        <v>1173</v>
-      </c>
-      <c r="C40" s="17" t="s">
-        <v>1173</v>
-      </c>
-      <c r="D40" s="17" t="s">
+      <c r="B40" s="15" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D40" s="15" t="s">
         <v>1173</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="16" t="s">
+      <c r="A41" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B41" s="16" t="s">
-        <v>1173</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>1173</v>
-      </c>
-      <c r="D41" s="16" t="s">
+      <c r="B41" s="14" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D41" s="14" t="s">
         <v>1173</v>
       </c>
     </row>
@@ -8569,66 +8569,66 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="18" t="s">
+      <c r="A43" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
     </row>
     <row r="44" spans="1:4" ht="160" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="16" t="s">
+      <c r="A44" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B44" s="16" t="s">
-        <v>1173</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>1173</v>
-      </c>
-      <c r="D44" s="16" t="s">
+      <c r="B44" s="14" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D44" s="14" t="s">
         <v>1173</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection password="A74C" sheet="1" formatColumns="0" formatRows="0" autoFilter="0"/>
   <mergeCells count="36">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A35:D35"/>
     <mergeCell ref="A44:D44"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:D38"/>
     <mergeCell ref="A40:D40"/>
     <mergeCell ref="A41:D41"/>
     <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape"/>
@@ -8641,10 +8641,10 @@
   <dimension ref="A1:L265"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomRight" activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -8665,13 +8665,13 @@
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>1173</v>
-      </c>
-      <c r="D1" s="14" t="s">
+      <c r="C1" s="18" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>1173</v>
       </c>
     </row>
@@ -8727,13 +8727,13 @@
         <v>1175</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="F3" s="4"/>
       <c r="I3" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="14" t="s">
         <v>48</v>
       </c>
       <c r="K3" s="20" t="s">
@@ -8763,7 +8763,7 @@
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
       <c r="K4" s="20"/>
-      <c r="L4" s="19"/>
+      <c r="L4" s="17"/>
     </row>
     <row r="5" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
@@ -8785,13 +8785,13 @@
       <c r="I5" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="J5" s="14" t="s">
         <v>56</v>
       </c>
       <c r="K5" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="L5" s="19"/>
+      <c r="L5" s="17"/>
     </row>
     <row r="6" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
@@ -8813,13 +8813,13 @@
       <c r="I6" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="J6" s="16" t="s">
+      <c r="J6" s="14" t="s">
         <v>61</v>
       </c>
       <c r="K6" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="L6" s="19"/>
+      <c r="L6" s="17"/>
     </row>
     <row r="7" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
@@ -8835,19 +8835,19 @@
         <v>1175</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="F7" s="4"/>
       <c r="I7" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="J7" s="16" t="s">
+      <c r="J7" s="14" t="s">
         <v>66</v>
       </c>
       <c r="K7" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="L7" s="19"/>
+      <c r="L7" s="17"/>
     </row>
     <row r="8" spans="1:12" ht="112" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
@@ -8869,13 +8869,13 @@
       <c r="I8" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="J8" s="16" t="s">
+      <c r="J8" s="14" t="s">
         <v>71</v>
       </c>
       <c r="K8" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="L8" s="19"/>
+      <c r="L8" s="17"/>
     </row>
     <row r="9" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="s">
@@ -8891,19 +8891,19 @@
         <v>1175</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="F9" s="4"/>
       <c r="I9" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="J9" s="16" t="s">
+      <c r="J9" s="14" t="s">
         <v>76</v>
       </c>
       <c r="K9" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="L9" s="19"/>
+      <c r="L9" s="17"/>
     </row>
     <row r="10" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
@@ -8925,7 +8925,7 @@
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
       <c r="K10" s="20"/>
-      <c r="L10" s="19"/>
+      <c r="L10" s="17"/>
     </row>
     <row r="11" spans="1:12" ht="112" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
@@ -8941,13 +8941,13 @@
         <v>1175</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="F11" s="4"/>
       <c r="I11" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="J11" s="16" t="s">
+      <c r="J11" s="14" t="s">
         <v>83</v>
       </c>
       <c r="K11" s="20" t="s">
@@ -8977,7 +8977,7 @@
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
       <c r="K12" s="20"/>
-      <c r="L12" s="19"/>
+      <c r="L12" s="17"/>
     </row>
     <row r="13" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
@@ -8999,13 +8999,13 @@
       <c r="I13" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="J13" s="16" t="s">
+      <c r="J13" s="14" t="s">
         <v>91</v>
       </c>
       <c r="K13" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="L13" s="19"/>
+      <c r="L13" s="17"/>
     </row>
     <row r="14" spans="1:12" ht="64" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
@@ -9027,13 +9027,13 @@
       <c r="I14" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="J14" s="16" t="s">
+      <c r="J14" s="14" t="s">
         <v>96</v>
       </c>
       <c r="K14" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="L14" s="19"/>
+      <c r="L14" s="17"/>
     </row>
     <row r="15" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="8" t="s">
@@ -9055,13 +9055,13 @@
       <c r="I15" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="J15" s="16" t="s">
+      <c r="J15" s="14" t="s">
         <v>101</v>
       </c>
       <c r="K15" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="L15" s="19"/>
+      <c r="L15" s="17"/>
     </row>
     <row r="16" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="7" t="s">
@@ -9077,19 +9077,19 @@
         <v>1175</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="F16" s="3"/>
       <c r="I16" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="J16" s="16" t="s">
+      <c r="J16" s="14" t="s">
         <v>106</v>
       </c>
       <c r="K16" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="L16" s="19"/>
+      <c r="L16" s="17"/>
     </row>
     <row r="17" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
@@ -9111,7 +9111,7 @@
       <c r="I17" s="20"/>
       <c r="J17" s="20"/>
       <c r="K17" s="20"/>
-      <c r="L17" s="19"/>
+      <c r="L17" s="17"/>
     </row>
     <row r="18" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="7" t="s">
@@ -9133,13 +9133,13 @@
       <c r="I18" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="J18" s="16" t="s">
+      <c r="J18" s="14" t="s">
         <v>113</v>
       </c>
       <c r="K18" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="L18" s="19"/>
+      <c r="L18" s="17"/>
     </row>
     <row r="19" spans="1:12" ht="64" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="8" t="s">
@@ -9161,7 +9161,7 @@
       <c r="I19" s="20"/>
       <c r="J19" s="20"/>
       <c r="K19" s="20"/>
-      <c r="L19" s="19"/>
+      <c r="L19" s="17"/>
     </row>
     <row r="20" spans="1:12" ht="64" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="7" t="s">
@@ -9183,13 +9183,13 @@
       <c r="I20" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="J20" s="16" t="s">
+      <c r="J20" s="14" t="s">
         <v>120</v>
       </c>
       <c r="K20" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="L20" s="19"/>
+      <c r="L20" s="17"/>
     </row>
     <row r="21" spans="1:12" ht="64" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="8" t="s">
@@ -9211,7 +9211,7 @@
       <c r="I21" s="20"/>
       <c r="J21" s="20"/>
       <c r="K21" s="20"/>
-      <c r="L21" s="19"/>
+      <c r="L21" s="17"/>
     </row>
     <row r="22" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="7" t="s">
@@ -9233,7 +9233,7 @@
       <c r="I22" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="J22" s="16" t="s">
+      <c r="J22" s="14" t="s">
         <v>127</v>
       </c>
       <c r="K22" s="20" t="s">
@@ -9263,7 +9263,7 @@
       <c r="I23" s="20"/>
       <c r="J23" s="20"/>
       <c r="K23" s="20"/>
-      <c r="L23" s="19"/>
+      <c r="L23" s="17"/>
     </row>
     <row r="24" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="7" t="s">
@@ -9285,13 +9285,13 @@
       <c r="I24" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="J24" s="16" t="s">
+      <c r="J24" s="14" t="s">
         <v>135</v>
       </c>
       <c r="K24" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="L24" s="19"/>
+      <c r="L24" s="17"/>
     </row>
     <row r="25" spans="1:12" ht="64" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="8" t="s">
@@ -9313,13 +9313,13 @@
       <c r="I25" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="J25" s="16" t="s">
+      <c r="J25" s="14" t="s">
         <v>140</v>
       </c>
       <c r="K25" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="L25" s="19"/>
+      <c r="L25" s="17"/>
     </row>
     <row r="26" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="7" t="s">
@@ -9335,19 +9335,19 @@
         <v>1175</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="F26" s="3"/>
       <c r="I26" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="J26" s="16" t="s">
+      <c r="J26" s="14" t="s">
         <v>145</v>
       </c>
       <c r="K26" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="L26" s="19"/>
+      <c r="L26" s="17"/>
     </row>
     <row r="27" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="8" t="s">
@@ -9369,13 +9369,13 @@
       <c r="I27" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="J27" s="16" t="s">
+      <c r="J27" s="14" t="s">
         <v>150</v>
       </c>
       <c r="K27" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="L27" s="19"/>
+      <c r="L27" s="17"/>
     </row>
     <row r="28" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="7" t="s">
@@ -9391,13 +9391,13 @@
         <v>1175</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="F28" s="3"/>
       <c r="I28" s="20"/>
       <c r="J28" s="20"/>
       <c r="K28" s="20"/>
-      <c r="L28" s="19"/>
+      <c r="L28" s="17"/>
     </row>
     <row r="29" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="8" t="s">
@@ -9419,7 +9419,7 @@
       <c r="I29" s="20"/>
       <c r="J29" s="20"/>
       <c r="K29" s="20"/>
-      <c r="L29" s="19"/>
+      <c r="L29" s="17"/>
     </row>
     <row r="30" spans="1:12" ht="64" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="7" t="s">
@@ -9441,13 +9441,13 @@
       <c r="I30" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="J30" s="16" t="s">
+      <c r="J30" s="14" t="s">
         <v>159</v>
       </c>
       <c r="K30" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="L30" s="19"/>
+      <c r="L30" s="17"/>
     </row>
     <row r="31" spans="1:12" ht="64" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="8" t="s">
@@ -9469,13 +9469,13 @@
       <c r="I31" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="J31" s="16" t="s">
+      <c r="J31" s="14" t="s">
         <v>164</v>
       </c>
       <c r="K31" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="L31" s="19"/>
+      <c r="L31" s="17"/>
     </row>
     <row r="32" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="7" t="s">
@@ -9497,13 +9497,13 @@
       <c r="I32" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="J32" s="16" t="s">
+      <c r="J32" s="14" t="s">
         <v>169</v>
       </c>
       <c r="K32" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="L32" s="19"/>
+      <c r="L32" s="17"/>
     </row>
     <row r="33" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="8" t="s">
@@ -9525,7 +9525,7 @@
       <c r="I33" s="20"/>
       <c r="J33" s="20"/>
       <c r="K33" s="20"/>
-      <c r="L33" s="19"/>
+      <c r="L33" s="17"/>
     </row>
     <row r="34" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="7" t="s">
@@ -9547,7 +9547,7 @@
       <c r="I34" s="20"/>
       <c r="J34" s="20"/>
       <c r="K34" s="20"/>
-      <c r="L34" s="19"/>
+      <c r="L34" s="17"/>
     </row>
     <row r="35" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="8" t="s">
@@ -9563,19 +9563,19 @@
         <v>1175</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="F35" s="4"/>
       <c r="I35" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="J35" s="16" t="s">
+      <c r="J35" s="14" t="s">
         <v>178</v>
       </c>
       <c r="K35" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="L35" s="19"/>
+      <c r="L35" s="17"/>
     </row>
     <row r="36" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="7" t="s">
@@ -9597,7 +9597,7 @@
       <c r="I36" s="20"/>
       <c r="J36" s="20"/>
       <c r="K36" s="20"/>
-      <c r="L36" s="19"/>
+      <c r="L36" s="17"/>
     </row>
     <row r="37" spans="1:12" ht="64" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="8" t="s">
@@ -9619,13 +9619,13 @@
       <c r="I37" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="J37" s="16" t="s">
+      <c r="J37" s="14" t="s">
         <v>185</v>
       </c>
       <c r="K37" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="L37" s="19"/>
+      <c r="L37" s="17"/>
     </row>
     <row r="38" spans="1:12" ht="64" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="7" t="s">
@@ -9647,7 +9647,7 @@
       <c r="I38" s="20"/>
       <c r="J38" s="20"/>
       <c r="K38" s="20"/>
-      <c r="L38" s="19"/>
+      <c r="L38" s="17"/>
     </row>
     <row r="39" spans="1:12" ht="112" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="8" t="s">
@@ -9663,19 +9663,19 @@
         <v>1175</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="F39" s="4"/>
       <c r="I39" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="J39" s="16" t="s">
+      <c r="J39" s="14" t="s">
         <v>192</v>
       </c>
       <c r="K39" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="L39" s="19"/>
+      <c r="L39" s="17"/>
     </row>
     <row r="40" spans="1:12" ht="144" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="7" t="s">
@@ -9697,7 +9697,7 @@
       <c r="I40" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="J40" s="16" t="s">
+      <c r="J40" s="14" t="s">
         <v>197</v>
       </c>
       <c r="K40" s="20" t="s">
@@ -9727,7 +9727,7 @@
       <c r="I41" s="20"/>
       <c r="J41" s="20"/>
       <c r="K41" s="20"/>
-      <c r="L41" s="19"/>
+      <c r="L41" s="17"/>
     </row>
     <row r="42" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="7" t="s">
@@ -9749,13 +9749,13 @@
       <c r="I42" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="J42" s="16" t="s">
+      <c r="J42" s="14" t="s">
         <v>204</v>
       </c>
       <c r="K42" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="L42" s="19"/>
+      <c r="L42" s="17"/>
     </row>
     <row r="43" spans="1:12" ht="112" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="8" t="s">
@@ -9777,13 +9777,13 @@
       <c r="I43" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="J43" s="16" t="s">
+      <c r="J43" s="14" t="s">
         <v>209</v>
       </c>
       <c r="K43" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="L43" s="19"/>
+      <c r="L43" s="17"/>
     </row>
     <row r="44" spans="1:12" ht="64" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="7" t="s">
@@ -9805,13 +9805,13 @@
       <c r="I44" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="J44" s="16" t="s">
+      <c r="J44" s="14" t="s">
         <v>214</v>
       </c>
       <c r="K44" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="L44" s="19"/>
+      <c r="L44" s="17"/>
     </row>
     <row r="45" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="8" t="s">
@@ -9833,13 +9833,13 @@
       <c r="I45" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="J45" s="16" t="s">
+      <c r="J45" s="14" t="s">
         <v>219</v>
       </c>
       <c r="K45" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="L45" s="19"/>
+      <c r="L45" s="17"/>
     </row>
     <row r="46" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="7" t="s">
@@ -9861,13 +9861,13 @@
       <c r="I46" s="20" t="s">
         <v>223</v>
       </c>
-      <c r="J46" s="16" t="s">
+      <c r="J46" s="14" t="s">
         <v>224</v>
       </c>
       <c r="K46" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="L46" s="19"/>
+      <c r="L46" s="17"/>
     </row>
     <row r="47" spans="1:12" ht="64" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="8" t="s">
@@ -9889,13 +9889,13 @@
       <c r="I47" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="J47" s="16" t="s">
+      <c r="J47" s="14" t="s">
         <v>229</v>
       </c>
       <c r="K47" s="20" t="s">
         <v>230</v>
       </c>
-      <c r="L47" s="19"/>
+      <c r="L47" s="17"/>
     </row>
     <row r="48" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="7" t="s">
@@ -9917,13 +9917,13 @@
       <c r="I48" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="J48" s="16" t="s">
+      <c r="J48" s="14" t="s">
         <v>234</v>
       </c>
       <c r="K48" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="L48" s="19"/>
+      <c r="L48" s="17"/>
     </row>
     <row r="49" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="8" t="s">
@@ -9945,7 +9945,7 @@
       <c r="I49" s="20"/>
       <c r="J49" s="20"/>
       <c r="K49" s="20"/>
-      <c r="L49" s="19"/>
+      <c r="L49" s="17"/>
     </row>
     <row r="50" spans="1:12" ht="64" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="7" t="s">
@@ -9967,13 +9967,13 @@
       <c r="I50" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="J50" s="16" t="s">
+      <c r="J50" s="14" t="s">
         <v>241</v>
       </c>
       <c r="K50" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="L50" s="19"/>
+      <c r="L50" s="17"/>
     </row>
     <row r="51" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="8" t="s">
@@ -9995,7 +9995,7 @@
       <c r="I51" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="J51" s="16" t="s">
+      <c r="J51" s="14" t="s">
         <v>246</v>
       </c>
       <c r="K51" s="20" t="s">
@@ -10025,7 +10025,7 @@
       <c r="I52" s="20"/>
       <c r="J52" s="20"/>
       <c r="K52" s="20"/>
-      <c r="L52" s="19"/>
+      <c r="L52" s="17"/>
     </row>
     <row r="53" spans="1:12" ht="64" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="8" t="s">
@@ -10047,13 +10047,13 @@
       <c r="I53" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="J53" s="16" t="s">
+      <c r="J53" s="14" t="s">
         <v>254</v>
       </c>
       <c r="K53" s="20" t="s">
         <v>255</v>
       </c>
-      <c r="L53" s="19"/>
+      <c r="L53" s="17"/>
     </row>
     <row r="54" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="7" t="s">
@@ -10069,19 +10069,19 @@
         <v>1175</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>1277</v>
+        <v>1297</v>
       </c>
       <c r="F54" s="3"/>
       <c r="I54" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="J54" s="16" t="s">
+      <c r="J54" s="14" t="s">
         <v>259</v>
       </c>
       <c r="K54" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="L54" s="19"/>
+      <c r="L54" s="17"/>
     </row>
     <row r="55" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="8" t="s">
@@ -10103,13 +10103,13 @@
       <c r="I55" s="20" t="s">
         <v>263</v>
       </c>
-      <c r="J55" s="16" t="s">
+      <c r="J55" s="14" t="s">
         <v>264</v>
       </c>
       <c r="K55" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="L55" s="19"/>
+      <c r="L55" s="17"/>
     </row>
     <row r="56" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="7" t="s">
@@ -10131,13 +10131,13 @@
       <c r="I56" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="J56" s="16" t="s">
+      <c r="J56" s="14" t="s">
         <v>269</v>
       </c>
       <c r="K56" s="20" t="s">
         <v>270</v>
       </c>
-      <c r="L56" s="19"/>
+      <c r="L56" s="17"/>
     </row>
     <row r="57" spans="1:12" ht="112" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="8" t="s">
@@ -10159,13 +10159,13 @@
       <c r="I57" s="20" t="s">
         <v>273</v>
       </c>
-      <c r="J57" s="16" t="s">
+      <c r="J57" s="14" t="s">
         <v>274</v>
       </c>
       <c r="K57" s="20" t="s">
         <v>275</v>
       </c>
-      <c r="L57" s="19"/>
+      <c r="L57" s="17"/>
     </row>
     <row r="58" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="7" t="s">
@@ -10187,13 +10187,13 @@
       <c r="I58" s="20" t="s">
         <v>278</v>
       </c>
-      <c r="J58" s="16" t="s">
+      <c r="J58" s="14" t="s">
         <v>279</v>
       </c>
       <c r="K58" s="20" t="s">
         <v>280</v>
       </c>
-      <c r="L58" s="19"/>
+      <c r="L58" s="17"/>
     </row>
     <row r="59" spans="1:12" ht="64" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="8" t="s">
@@ -10209,19 +10209,19 @@
         <v>1175</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="F59" s="4"/>
       <c r="I59" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="J59" s="16" t="s">
+      <c r="J59" s="14" t="s">
         <v>284</v>
       </c>
       <c r="K59" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="L59" s="19"/>
+      <c r="L59" s="17"/>
     </row>
     <row r="60" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="7" t="s">
@@ -10243,13 +10243,13 @@
       <c r="I60" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="J60" s="16" t="s">
+      <c r="J60" s="14" t="s">
         <v>289</v>
       </c>
       <c r="K60" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="L60" s="19"/>
+      <c r="L60" s="17"/>
     </row>
     <row r="61" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="8" t="s">
@@ -10271,7 +10271,7 @@
       <c r="I61" s="20"/>
       <c r="J61" s="20"/>
       <c r="K61" s="20"/>
-      <c r="L61" s="19"/>
+      <c r="L61" s="17"/>
     </row>
     <row r="62" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="7" t="s">
@@ -10293,13 +10293,13 @@
       <c r="I62" s="20" t="s">
         <v>295</v>
       </c>
-      <c r="J62" s="16" t="s">
+      <c r="J62" s="14" t="s">
         <v>296</v>
       </c>
       <c r="K62" s="20" t="s">
         <v>297</v>
       </c>
-      <c r="L62" s="19"/>
+      <c r="L62" s="17"/>
     </row>
     <row r="63" spans="1:12" ht="64" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="8" t="s">
@@ -10321,13 +10321,13 @@
       <c r="I63" s="20" t="s">
         <v>300</v>
       </c>
-      <c r="J63" s="16" t="s">
+      <c r="J63" s="14" t="s">
         <v>301</v>
       </c>
       <c r="K63" s="20" t="s">
         <v>302</v>
       </c>
-      <c r="L63" s="19"/>
+      <c r="L63" s="17"/>
     </row>
     <row r="64" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="7" t="s">
@@ -10349,13 +10349,13 @@
       <c r="I64" s="20" t="s">
         <v>305</v>
       </c>
-      <c r="J64" s="16" t="s">
+      <c r="J64" s="14" t="s">
         <v>306</v>
       </c>
       <c r="K64" s="20" t="s">
         <v>307</v>
       </c>
-      <c r="L64" s="19"/>
+      <c r="L64" s="17"/>
     </row>
     <row r="65" spans="1:12" ht="112" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="8" t="s">
@@ -10377,13 +10377,13 @@
       <c r="I65" s="20" t="s">
         <v>310</v>
       </c>
-      <c r="J65" s="16" t="s">
+      <c r="J65" s="14" t="s">
         <v>311</v>
       </c>
       <c r="K65" s="20" t="s">
         <v>312</v>
       </c>
-      <c r="L65" s="19"/>
+      <c r="L65" s="17"/>
     </row>
     <row r="66" spans="1:12" ht="128" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="7" t="s">
@@ -10405,13 +10405,13 @@
       <c r="I66" s="20" t="s">
         <v>315</v>
       </c>
-      <c r="J66" s="16" t="s">
+      <c r="J66" s="14" t="s">
         <v>316</v>
       </c>
       <c r="K66" s="20" t="s">
         <v>317</v>
       </c>
-      <c r="L66" s="19"/>
+      <c r="L66" s="17"/>
     </row>
     <row r="67" spans="1:12" ht="128" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="8" t="s">
@@ -10433,13 +10433,13 @@
       <c r="I67" s="20" t="s">
         <v>320</v>
       </c>
-      <c r="J67" s="16" t="s">
+      <c r="J67" s="14" t="s">
         <v>321</v>
       </c>
       <c r="K67" s="20" t="s">
         <v>322</v>
       </c>
-      <c r="L67" s="19"/>
+      <c r="L67" s="17"/>
     </row>
     <row r="68" spans="1:12" ht="112" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="7" t="s">
@@ -10461,13 +10461,13 @@
       <c r="I68" s="20" t="s">
         <v>325</v>
       </c>
-      <c r="J68" s="16" t="s">
+      <c r="J68" s="14" t="s">
         <v>326</v>
       </c>
       <c r="K68" s="20" t="s">
         <v>327</v>
       </c>
-      <c r="L68" s="19"/>
+      <c r="L68" s="17"/>
     </row>
     <row r="69" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="8" t="s">
@@ -10489,13 +10489,13 @@
       <c r="I69" s="20" t="s">
         <v>330</v>
       </c>
-      <c r="J69" s="16" t="s">
+      <c r="J69" s="14" t="s">
         <v>331</v>
       </c>
       <c r="K69" s="20" t="s">
         <v>332</v>
       </c>
-      <c r="L69" s="19"/>
+      <c r="L69" s="17"/>
     </row>
     <row r="70" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="7" t="s">
@@ -10517,13 +10517,13 @@
       <c r="I70" s="20" t="s">
         <v>335</v>
       </c>
-      <c r="J70" s="16" t="s">
+      <c r="J70" s="14" t="s">
         <v>336</v>
       </c>
       <c r="K70" s="20" t="s">
         <v>337</v>
       </c>
-      <c r="L70" s="19"/>
+      <c r="L70" s="17"/>
     </row>
     <row r="71" spans="1:12" ht="128" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="8" t="s">
@@ -10545,13 +10545,13 @@
       <c r="I71" s="20" t="s">
         <v>340</v>
       </c>
-      <c r="J71" s="16" t="s">
+      <c r="J71" s="14" t="s">
         <v>341</v>
       </c>
       <c r="K71" s="20" t="s">
         <v>342</v>
       </c>
-      <c r="L71" s="19"/>
+      <c r="L71" s="17"/>
     </row>
     <row r="72" spans="1:12" ht="144" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="7" t="s">
@@ -10573,13 +10573,13 @@
       <c r="I72" s="20" t="s">
         <v>345</v>
       </c>
-      <c r="J72" s="16" t="s">
+      <c r="J72" s="14" t="s">
         <v>346</v>
       </c>
       <c r="K72" s="20" t="s">
         <v>347</v>
       </c>
-      <c r="L72" s="19"/>
+      <c r="L72" s="17"/>
     </row>
     <row r="73" spans="1:12" ht="128" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="8" t="s">
@@ -10601,13 +10601,13 @@
       <c r="I73" s="20" t="s">
         <v>350</v>
       </c>
-      <c r="J73" s="16" t="s">
+      <c r="J73" s="14" t="s">
         <v>351</v>
       </c>
       <c r="K73" s="20" t="s">
         <v>352</v>
       </c>
-      <c r="L73" s="19"/>
+      <c r="L73" s="17"/>
     </row>
     <row r="74" spans="1:12" ht="112" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="7" t="s">
@@ -10629,7 +10629,7 @@
       <c r="I74" s="20" t="s">
         <v>355</v>
       </c>
-      <c r="J74" s="16" t="s">
+      <c r="J74" s="14" t="s">
         <v>356</v>
       </c>
       <c r="K74" s="20" t="s">
@@ -10659,7 +10659,7 @@
       <c r="I75" s="20"/>
       <c r="J75" s="20"/>
       <c r="K75" s="20"/>
-      <c r="L75" s="19"/>
+      <c r="L75" s="17"/>
     </row>
     <row r="76" spans="1:12" ht="112" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="7" t="s">
@@ -10681,7 +10681,7 @@
       <c r="I76" s="20"/>
       <c r="J76" s="20"/>
       <c r="K76" s="20"/>
-      <c r="L76" s="19"/>
+      <c r="L76" s="17"/>
     </row>
     <row r="77" spans="1:12" ht="128" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="8" t="s">
@@ -10703,13 +10703,13 @@
       <c r="I77" s="20" t="s">
         <v>365</v>
       </c>
-      <c r="J77" s="16" t="s">
+      <c r="J77" s="14" t="s">
         <v>366</v>
       </c>
       <c r="K77" s="20" t="s">
         <v>367</v>
       </c>
-      <c r="L77" s="19"/>
+      <c r="L77" s="17"/>
     </row>
     <row r="78" spans="1:12" ht="128" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="7" t="s">
@@ -10731,7 +10731,7 @@
       <c r="I78" s="20"/>
       <c r="J78" s="20"/>
       <c r="K78" s="20"/>
-      <c r="L78" s="19"/>
+      <c r="L78" s="17"/>
     </row>
     <row r="79" spans="1:12" ht="128" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="8" t="s">
@@ -10753,7 +10753,7 @@
       <c r="I79" s="20"/>
       <c r="J79" s="20"/>
       <c r="K79" s="20"/>
-      <c r="L79" s="19"/>
+      <c r="L79" s="17"/>
     </row>
     <row r="80" spans="1:12" ht="112" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="7" t="s">
@@ -10769,19 +10769,19 @@
         <v>1175</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="F80" s="3"/>
       <c r="I80" s="20" t="s">
         <v>374</v>
       </c>
-      <c r="J80" s="16" t="s">
+      <c r="J80" s="14" t="s">
         <v>375</v>
       </c>
       <c r="K80" s="20" t="s">
         <v>376</v>
       </c>
-      <c r="L80" s="19"/>
+      <c r="L80" s="17"/>
     </row>
     <row r="81" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="8" t="s">
@@ -10803,7 +10803,7 @@
       <c r="I81" s="20"/>
       <c r="J81" s="20"/>
       <c r="K81" s="20"/>
-      <c r="L81" s="19"/>
+      <c r="L81" s="17"/>
     </row>
     <row r="82" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="7" t="s">
@@ -10825,13 +10825,13 @@
       <c r="I82" s="20" t="s">
         <v>381</v>
       </c>
-      <c r="J82" s="16" t="s">
+      <c r="J82" s="14" t="s">
         <v>382</v>
       </c>
       <c r="K82" s="20" t="s">
         <v>383</v>
       </c>
-      <c r="L82" s="19"/>
+      <c r="L82" s="17"/>
     </row>
     <row r="83" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="8" t="s">
@@ -10853,7 +10853,7 @@
       <c r="I83" s="20"/>
       <c r="J83" s="20"/>
       <c r="K83" s="20"/>
-      <c r="L83" s="19"/>
+      <c r="L83" s="17"/>
     </row>
     <row r="84" spans="1:12" ht="64" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="7" t="s">
@@ -10875,13 +10875,13 @@
       <c r="I84" s="20" t="s">
         <v>388</v>
       </c>
-      <c r="J84" s="16" t="s">
+      <c r="J84" s="14" t="s">
         <v>389</v>
       </c>
       <c r="K84" s="20" t="s">
         <v>390</v>
       </c>
-      <c r="L84" s="19"/>
+      <c r="L84" s="17"/>
     </row>
     <row r="85" spans="1:12" ht="64" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="8" t="s">
@@ -10903,13 +10903,13 @@
       <c r="I85" s="20" t="s">
         <v>393</v>
       </c>
-      <c r="J85" s="16" t="s">
+      <c r="J85" s="14" t="s">
         <v>394</v>
       </c>
       <c r="K85" s="20" t="s">
         <v>395</v>
       </c>
-      <c r="L85" s="19"/>
+      <c r="L85" s="17"/>
     </row>
     <row r="86" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="7" t="s">
@@ -10925,19 +10925,19 @@
         <v>1213</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="F86" s="3"/>
       <c r="I86" s="20" t="s">
         <v>398</v>
       </c>
-      <c r="J86" s="16" t="s">
+      <c r="J86" s="14" t="s">
         <v>399</v>
       </c>
       <c r="K86" s="20" t="s">
         <v>400</v>
       </c>
-      <c r="L86" s="19"/>
+      <c r="L86" s="17"/>
     </row>
     <row r="87" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="8" t="s">
@@ -10959,7 +10959,7 @@
       <c r="I87" s="20"/>
       <c r="J87" s="20"/>
       <c r="K87" s="20"/>
-      <c r="L87" s="19"/>
+      <c r="L87" s="17"/>
     </row>
     <row r="88" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="7" t="s">
@@ -10975,19 +10975,19 @@
         <v>1175</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="F88" s="3"/>
       <c r="I88" s="20" t="s">
         <v>405</v>
       </c>
-      <c r="J88" s="16" t="s">
+      <c r="J88" s="14" t="s">
         <v>406</v>
       </c>
       <c r="K88" s="20" t="s">
         <v>407</v>
       </c>
-      <c r="L88" s="19"/>
+      <c r="L88" s="17"/>
     </row>
     <row r="89" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="8" t="s">
@@ -11009,13 +11009,13 @@
       <c r="I89" s="20" t="s">
         <v>410</v>
       </c>
-      <c r="J89" s="16" t="s">
+      <c r="J89" s="14" t="s">
         <v>411</v>
       </c>
       <c r="K89" s="20" t="s">
         <v>412</v>
       </c>
-      <c r="L89" s="19"/>
+      <c r="L89" s="17"/>
     </row>
     <row r="90" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="7" t="s">
@@ -11037,7 +11037,7 @@
       <c r="I90" s="20"/>
       <c r="J90" s="20"/>
       <c r="K90" s="20"/>
-      <c r="L90" s="19"/>
+      <c r="L90" s="17"/>
     </row>
     <row r="91" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="8" t="s">
@@ -11059,13 +11059,13 @@
       <c r="I91" s="20" t="s">
         <v>417</v>
       </c>
-      <c r="J91" s="16" t="s">
+      <c r="J91" s="14" t="s">
         <v>418</v>
       </c>
       <c r="K91" s="20" t="s">
         <v>419</v>
       </c>
-      <c r="L91" s="19"/>
+      <c r="L91" s="17"/>
     </row>
     <row r="92" spans="1:12" ht="64" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="7" t="s">
@@ -11087,13 +11087,13 @@
       <c r="I92" s="20" t="s">
         <v>422</v>
       </c>
-      <c r="J92" s="16" t="s">
+      <c r="J92" s="14" t="s">
         <v>423</v>
       </c>
       <c r="K92" s="20" t="s">
         <v>424</v>
       </c>
-      <c r="L92" s="19"/>
+      <c r="L92" s="17"/>
     </row>
     <row r="93" spans="1:12" ht="112" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="8" t="s">
@@ -11115,13 +11115,13 @@
       <c r="I93" s="20" t="s">
         <v>427</v>
       </c>
-      <c r="J93" s="16" t="s">
+      <c r="J93" s="14" t="s">
         <v>428</v>
       </c>
       <c r="K93" s="20" t="s">
         <v>429</v>
       </c>
-      <c r="L93" s="19"/>
+      <c r="L93" s="17"/>
     </row>
     <row r="94" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="7" t="s">
@@ -11143,13 +11143,13 @@
       <c r="I94" s="20" t="s">
         <v>432</v>
       </c>
-      <c r="J94" s="16" t="s">
+      <c r="J94" s="14" t="s">
         <v>433</v>
       </c>
       <c r="K94" s="20" t="s">
         <v>434</v>
       </c>
-      <c r="L94" s="19"/>
+      <c r="L94" s="17"/>
     </row>
     <row r="95" spans="1:12" ht="64" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="8" t="s">
@@ -11171,13 +11171,13 @@
       <c r="I95" s="20" t="s">
         <v>437</v>
       </c>
-      <c r="J95" s="16" t="s">
+      <c r="J95" s="14" t="s">
         <v>438</v>
       </c>
       <c r="K95" s="20" t="s">
         <v>439</v>
       </c>
-      <c r="L95" s="19"/>
+      <c r="L95" s="17"/>
     </row>
     <row r="96" spans="1:12" ht="64" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="7" t="s">
@@ -11199,13 +11199,13 @@
       <c r="I96" s="20" t="s">
         <v>442</v>
       </c>
-      <c r="J96" s="16" t="s">
+      <c r="J96" s="14" t="s">
         <v>443</v>
       </c>
       <c r="K96" s="20" t="s">
         <v>444</v>
       </c>
-      <c r="L96" s="19"/>
+      <c r="L96" s="17"/>
     </row>
     <row r="97" spans="1:12" ht="128" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="8" t="s">
@@ -11227,7 +11227,7 @@
       <c r="I97" s="20" t="s">
         <v>447</v>
       </c>
-      <c r="J97" s="16" t="s">
+      <c r="J97" s="14" t="s">
         <v>448</v>
       </c>
       <c r="K97" s="20" t="s">
@@ -11257,7 +11257,7 @@
       <c r="I98" s="20"/>
       <c r="J98" s="20"/>
       <c r="K98" s="20"/>
-      <c r="L98" s="19"/>
+      <c r="L98" s="17"/>
     </row>
     <row r="99" spans="1:12" ht="64" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="8" t="s">
@@ -11279,13 +11279,13 @@
       <c r="I99" s="20" t="s">
         <v>455</v>
       </c>
-      <c r="J99" s="16" t="s">
+      <c r="J99" s="14" t="s">
         <v>456</v>
       </c>
       <c r="K99" s="20" t="s">
         <v>457</v>
       </c>
-      <c r="L99" s="19"/>
+      <c r="L99" s="17"/>
     </row>
     <row r="100" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="7" t="s">
@@ -11307,13 +11307,13 @@
       <c r="I100" s="20" t="s">
         <v>460</v>
       </c>
-      <c r="J100" s="16" t="s">
+      <c r="J100" s="14" t="s">
         <v>461</v>
       </c>
       <c r="K100" s="20" t="s">
         <v>462</v>
       </c>
-      <c r="L100" s="19"/>
+      <c r="L100" s="17"/>
     </row>
     <row r="101" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="8" t="s">
@@ -11335,13 +11335,13 @@
       <c r="I101" s="20" t="s">
         <v>465</v>
       </c>
-      <c r="J101" s="16" t="s">
+      <c r="J101" s="14" t="s">
         <v>466</v>
       </c>
       <c r="K101" s="20" t="s">
         <v>467</v>
       </c>
-      <c r="L101" s="19"/>
+      <c r="L101" s="17"/>
     </row>
     <row r="102" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="7" t="s">
@@ -11363,13 +11363,13 @@
       <c r="I102" s="20" t="s">
         <v>470</v>
       </c>
-      <c r="J102" s="16" t="s">
+      <c r="J102" s="14" t="s">
         <v>471</v>
       </c>
       <c r="K102" s="20" t="s">
         <v>472</v>
       </c>
-      <c r="L102" s="19"/>
+      <c r="L102" s="17"/>
     </row>
     <row r="103" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="8" t="s">
@@ -11391,7 +11391,7 @@
       <c r="I103" s="20"/>
       <c r="J103" s="20"/>
       <c r="K103" s="20"/>
-      <c r="L103" s="19"/>
+      <c r="L103" s="17"/>
     </row>
     <row r="104" spans="1:12" ht="64" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="7" t="s">
@@ -11413,13 +11413,13 @@
       <c r="I104" s="20" t="s">
         <v>477</v>
       </c>
-      <c r="J104" s="16" t="s">
+      <c r="J104" s="14" t="s">
         <v>478</v>
       </c>
       <c r="K104" s="20" t="s">
         <v>479</v>
       </c>
-      <c r="L104" s="19"/>
+      <c r="L104" s="17"/>
     </row>
     <row r="105" spans="1:12" ht="64" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="8" t="s">
@@ -11441,7 +11441,7 @@
       <c r="I105" s="20"/>
       <c r="J105" s="20"/>
       <c r="K105" s="20"/>
-      <c r="L105" s="19"/>
+      <c r="L105" s="17"/>
     </row>
     <row r="106" spans="1:12" ht="64" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="7" t="s">
@@ -11457,19 +11457,19 @@
         <v>1175</v>
       </c>
       <c r="E106" s="11" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="F106" s="3"/>
       <c r="I106" s="20" t="s">
         <v>484</v>
       </c>
-      <c r="J106" s="16" t="s">
+      <c r="J106" s="14" t="s">
         <v>485</v>
       </c>
       <c r="K106" s="20" t="s">
         <v>486</v>
       </c>
-      <c r="L106" s="19"/>
+      <c r="L106" s="17"/>
     </row>
     <row r="107" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="8" t="s">
@@ -11491,13 +11491,13 @@
       <c r="I107" s="20" t="s">
         <v>489</v>
       </c>
-      <c r="J107" s="16" t="s">
+      <c r="J107" s="14" t="s">
         <v>490</v>
       </c>
       <c r="K107" s="20" t="s">
         <v>491</v>
       </c>
-      <c r="L107" s="19"/>
+      <c r="L107" s="17"/>
     </row>
     <row r="108" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="7" t="s">
@@ -11519,7 +11519,7 @@
       <c r="I108" s="20"/>
       <c r="J108" s="20"/>
       <c r="K108" s="20"/>
-      <c r="L108" s="19"/>
+      <c r="L108" s="17"/>
     </row>
     <row r="109" spans="1:12" ht="112" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="8" t="s">
@@ -11541,13 +11541,13 @@
       <c r="I109" s="20" t="s">
         <v>496</v>
       </c>
-      <c r="J109" s="16" t="s">
+      <c r="J109" s="14" t="s">
         <v>497</v>
       </c>
       <c r="K109" s="20" t="s">
         <v>498</v>
       </c>
-      <c r="L109" s="19"/>
+      <c r="L109" s="17"/>
     </row>
     <row r="110" spans="1:12" ht="128" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="7" t="s">
@@ -11563,19 +11563,19 @@
         <v>1175</v>
       </c>
       <c r="E110" s="11" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="F110" s="3"/>
       <c r="I110" s="20" t="s">
         <v>501</v>
       </c>
-      <c r="J110" s="16" t="s">
+      <c r="J110" s="14" t="s">
         <v>502</v>
       </c>
       <c r="K110" s="20" t="s">
         <v>503</v>
       </c>
-      <c r="L110" s="19"/>
+      <c r="L110" s="17"/>
     </row>
     <row r="111" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="8" t="s">
@@ -11597,13 +11597,13 @@
       <c r="I111" s="20" t="s">
         <v>506</v>
       </c>
-      <c r="J111" s="16" t="s">
+      <c r="J111" s="14" t="s">
         <v>507</v>
       </c>
       <c r="K111" s="20" t="s">
         <v>508</v>
       </c>
-      <c r="L111" s="19"/>
+      <c r="L111" s="17"/>
     </row>
     <row r="112" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="7" t="s">
@@ -11625,13 +11625,13 @@
       <c r="I112" s="20" t="s">
         <v>511</v>
       </c>
-      <c r="J112" s="16" t="s">
+      <c r="J112" s="14" t="s">
         <v>512</v>
       </c>
       <c r="K112" s="20" t="s">
         <v>513</v>
       </c>
-      <c r="L112" s="19"/>
+      <c r="L112" s="17"/>
     </row>
     <row r="113" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="8" t="s">
@@ -11653,13 +11653,13 @@
       <c r="I113" s="20" t="s">
         <v>516</v>
       </c>
-      <c r="J113" s="16" t="s">
+      <c r="J113" s="14" t="s">
         <v>517</v>
       </c>
       <c r="K113" s="20" t="s">
         <v>518</v>
       </c>
-      <c r="L113" s="19"/>
+      <c r="L113" s="17"/>
     </row>
     <row r="114" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="7" t="s">
@@ -11681,13 +11681,13 @@
       <c r="I114" s="20" t="s">
         <v>521</v>
       </c>
-      <c r="J114" s="16" t="s">
+      <c r="J114" s="14" t="s">
         <v>522</v>
       </c>
       <c r="K114" s="20" t="s">
         <v>523</v>
       </c>
-      <c r="L114" s="19"/>
+      <c r="L114" s="17"/>
     </row>
     <row r="115" spans="1:12" ht="64" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="8" t="s">
@@ -11709,13 +11709,13 @@
       <c r="I115" s="20" t="s">
         <v>526</v>
       </c>
-      <c r="J115" s="16" t="s">
+      <c r="J115" s="14" t="s">
         <v>527</v>
       </c>
       <c r="K115" s="20" t="s">
         <v>528</v>
       </c>
-      <c r="L115" s="19"/>
+      <c r="L115" s="17"/>
     </row>
     <row r="116" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="7" t="s">
@@ -11737,13 +11737,13 @@
       <c r="I116" s="20" t="s">
         <v>531</v>
       </c>
-      <c r="J116" s="16" t="s">
+      <c r="J116" s="14" t="s">
         <v>532</v>
       </c>
       <c r="K116" s="20" t="s">
         <v>533</v>
       </c>
-      <c r="L116" s="19"/>
+      <c r="L116" s="17"/>
     </row>
     <row r="117" spans="1:12" ht="64" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="8" t="s">
@@ -11765,13 +11765,13 @@
       <c r="I117" s="20" t="s">
         <v>536</v>
       </c>
-      <c r="J117" s="16" t="s">
+      <c r="J117" s="14" t="s">
         <v>537</v>
       </c>
       <c r="K117" s="20" t="s">
         <v>538</v>
       </c>
-      <c r="L117" s="19"/>
+      <c r="L117" s="17"/>
     </row>
     <row r="118" spans="1:12" ht="160" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="7" t="s">
@@ -11793,13 +11793,13 @@
       <c r="I118" s="20" t="s">
         <v>541</v>
       </c>
-      <c r="J118" s="16" t="s">
+      <c r="J118" s="14" t="s">
         <v>542</v>
       </c>
       <c r="K118" s="20" t="s">
         <v>543</v>
       </c>
-      <c r="L118" s="19"/>
+      <c r="L118" s="17"/>
     </row>
     <row r="119" spans="1:12" ht="160" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="8" t="s">
@@ -11821,7 +11821,7 @@
       <c r="I119" s="20"/>
       <c r="J119" s="20"/>
       <c r="K119" s="20"/>
-      <c r="L119" s="19"/>
+      <c r="L119" s="17"/>
     </row>
     <row r="120" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="7" t="s">
@@ -11843,13 +11843,13 @@
       <c r="I120" s="20" t="s">
         <v>548</v>
       </c>
-      <c r="J120" s="16" t="s">
+      <c r="J120" s="14" t="s">
         <v>549</v>
       </c>
       <c r="K120" s="20" t="s">
         <v>550</v>
       </c>
-      <c r="L120" s="19"/>
+      <c r="L120" s="17"/>
     </row>
     <row r="121" spans="1:12" ht="128" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="8" t="s">
@@ -11871,7 +11871,7 @@
       <c r="I121" s="20" t="s">
         <v>553</v>
       </c>
-      <c r="J121" s="16" t="s">
+      <c r="J121" s="14" t="s">
         <v>554</v>
       </c>
       <c r="K121" s="20" t="s">
@@ -11901,7 +11901,7 @@
       <c r="I122" s="20"/>
       <c r="J122" s="20"/>
       <c r="K122" s="20"/>
-      <c r="L122" s="19"/>
+      <c r="L122" s="17"/>
     </row>
     <row r="123" spans="1:12" ht="128" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="8" t="s">
@@ -11923,13 +11923,13 @@
       <c r="I123" s="20" t="s">
         <v>560</v>
       </c>
-      <c r="J123" s="16" t="s">
+      <c r="J123" s="14" t="s">
         <v>561</v>
       </c>
       <c r="K123" s="20" t="s">
         <v>562</v>
       </c>
-      <c r="L123" s="19"/>
+      <c r="L123" s="17"/>
     </row>
     <row r="124" spans="1:12" ht="64" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="7" t="s">
@@ -11951,13 +11951,13 @@
       <c r="I124" s="20" t="s">
         <v>565</v>
       </c>
-      <c r="J124" s="16" t="s">
+      <c r="J124" s="14" t="s">
         <v>566</v>
       </c>
       <c r="K124" s="20" t="s">
         <v>567</v>
       </c>
-      <c r="L124" s="19"/>
+      <c r="L124" s="17"/>
     </row>
     <row r="125" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="8" t="s">
@@ -11979,13 +11979,13 @@
       <c r="I125" s="20" t="s">
         <v>570</v>
       </c>
-      <c r="J125" s="16" t="s">
+      <c r="J125" s="14" t="s">
         <v>571</v>
       </c>
       <c r="K125" s="20" t="s">
         <v>572</v>
       </c>
-      <c r="L125" s="19"/>
+      <c r="L125" s="17"/>
     </row>
     <row r="126" spans="1:12" ht="64" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="7" t="s">
@@ -12007,13 +12007,13 @@
       <c r="I126" s="20" t="s">
         <v>575</v>
       </c>
-      <c r="J126" s="16" t="s">
+      <c r="J126" s="14" t="s">
         <v>576</v>
       </c>
       <c r="K126" s="20" t="s">
         <v>577</v>
       </c>
-      <c r="L126" s="19"/>
+      <c r="L126" s="17"/>
     </row>
     <row r="127" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="8" t="s">
@@ -12035,13 +12035,13 @@
       <c r="I127" s="20" t="s">
         <v>580</v>
       </c>
-      <c r="J127" s="16" t="s">
+      <c r="J127" s="14" t="s">
         <v>581</v>
       </c>
       <c r="K127" s="20" t="s">
         <v>582</v>
       </c>
-      <c r="L127" s="19"/>
+      <c r="L127" s="17"/>
     </row>
     <row r="128" spans="1:12" ht="64" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="7" t="s">
@@ -12063,13 +12063,13 @@
       <c r="I128" s="20" t="s">
         <v>585</v>
       </c>
-      <c r="J128" s="16" t="s">
+      <c r="J128" s="14" t="s">
         <v>586</v>
       </c>
       <c r="K128" s="20" t="s">
         <v>587</v>
       </c>
-      <c r="L128" s="19"/>
+      <c r="L128" s="17"/>
     </row>
     <row r="129" spans="1:12" ht="64" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="8" t="s">
@@ -12091,13 +12091,13 @@
       <c r="I129" s="20" t="s">
         <v>590</v>
       </c>
-      <c r="J129" s="16" t="s">
+      <c r="J129" s="14" t="s">
         <v>591</v>
       </c>
       <c r="K129" s="20" t="s">
         <v>592</v>
       </c>
-      <c r="L129" s="19"/>
+      <c r="L129" s="17"/>
     </row>
     <row r="130" spans="1:12" ht="160" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="7" t="s">
@@ -12119,7 +12119,7 @@
       <c r="I130" s="20" t="s">
         <v>595</v>
       </c>
-      <c r="J130" s="16" t="s">
+      <c r="J130" s="14" t="s">
         <v>596</v>
       </c>
       <c r="K130" s="20" t="s">
@@ -12149,7 +12149,7 @@
       <c r="I131" s="20"/>
       <c r="J131" s="20"/>
       <c r="K131" s="20"/>
-      <c r="L131" s="19"/>
+      <c r="L131" s="17"/>
     </row>
     <row r="132" spans="1:12" ht="160" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="7" t="s">
@@ -12171,7 +12171,7 @@
       <c r="I132" s="20"/>
       <c r="J132" s="20"/>
       <c r="K132" s="20"/>
-      <c r="L132" s="19"/>
+      <c r="L132" s="17"/>
     </row>
     <row r="133" spans="1:12" ht="112" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="8" t="s">
@@ -12193,13 +12193,13 @@
       <c r="I133" s="20" t="s">
         <v>605</v>
       </c>
-      <c r="J133" s="16" t="s">
+      <c r="J133" s="14" t="s">
         <v>606</v>
       </c>
       <c r="K133" s="20" t="s">
         <v>607</v>
       </c>
-      <c r="L133" s="19"/>
+      <c r="L133" s="17"/>
     </row>
     <row r="134" spans="1:12" ht="112" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="7" t="s">
@@ -12221,7 +12221,7 @@
       <c r="I134" s="20"/>
       <c r="J134" s="20"/>
       <c r="K134" s="20"/>
-      <c r="L134" s="19"/>
+      <c r="L134" s="17"/>
     </row>
     <row r="135" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="8" t="s">
@@ -12243,13 +12243,13 @@
       <c r="I135" s="20" t="s">
         <v>612</v>
       </c>
-      <c r="J135" s="16" t="s">
+      <c r="J135" s="14" t="s">
         <v>613</v>
       </c>
       <c r="K135" s="20" t="s">
         <v>614</v>
       </c>
-      <c r="L135" s="19"/>
+      <c r="L135" s="17"/>
     </row>
     <row r="136" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="7" t="s">
@@ -12271,7 +12271,7 @@
       <c r="I136" s="20"/>
       <c r="J136" s="20"/>
       <c r="K136" s="20"/>
-      <c r="L136" s="19"/>
+      <c r="L136" s="17"/>
     </row>
     <row r="137" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="8" t="s">
@@ -12293,13 +12293,13 @@
       <c r="I137" s="20" t="s">
         <v>619</v>
       </c>
-      <c r="J137" s="16" t="s">
+      <c r="J137" s="14" t="s">
         <v>620</v>
       </c>
       <c r="K137" s="20" t="s">
         <v>621</v>
       </c>
-      <c r="L137" s="19"/>
+      <c r="L137" s="17"/>
     </row>
     <row r="138" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="7" t="s">
@@ -12321,7 +12321,7 @@
       <c r="I138" s="20"/>
       <c r="J138" s="20"/>
       <c r="K138" s="20"/>
-      <c r="L138" s="19"/>
+      <c r="L138" s="17"/>
     </row>
     <row r="139" spans="1:12" ht="64" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="8" t="s">
@@ -12337,19 +12337,19 @@
         <v>1175</v>
       </c>
       <c r="E139" s="13" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="F139" s="4"/>
       <c r="I139" s="20" t="s">
         <v>626</v>
       </c>
-      <c r="J139" s="16" t="s">
+      <c r="J139" s="14" t="s">
         <v>627</v>
       </c>
       <c r="K139" s="20" t="s">
         <v>628</v>
       </c>
-      <c r="L139" s="19"/>
+      <c r="L139" s="17"/>
     </row>
     <row r="140" spans="1:12" ht="64" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="7" t="s">
@@ -12371,13 +12371,13 @@
       <c r="I140" s="20" t="s">
         <v>631</v>
       </c>
-      <c r="J140" s="16" t="s">
+      <c r="J140" s="14" t="s">
         <v>632</v>
       </c>
       <c r="K140" s="20" t="s">
         <v>633</v>
       </c>
-      <c r="L140" s="19"/>
+      <c r="L140" s="17"/>
     </row>
     <row r="141" spans="1:12" ht="64" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="8" t="s">
@@ -12399,13 +12399,13 @@
       <c r="I141" s="20" t="s">
         <v>636</v>
       </c>
-      <c r="J141" s="16" t="s">
+      <c r="J141" s="14" t="s">
         <v>637</v>
       </c>
       <c r="K141" s="20" t="s">
         <v>638</v>
       </c>
-      <c r="L141" s="19"/>
+      <c r="L141" s="17"/>
     </row>
     <row r="142" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="7" t="s">
@@ -12427,13 +12427,13 @@
       <c r="I142" s="20" t="s">
         <v>641</v>
       </c>
-      <c r="J142" s="16" t="s">
+      <c r="J142" s="14" t="s">
         <v>642</v>
       </c>
       <c r="K142" s="20" t="s">
         <v>643</v>
       </c>
-      <c r="L142" s="19"/>
+      <c r="L142" s="17"/>
     </row>
     <row r="143" spans="1:12" ht="64" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="8" t="s">
@@ -12455,13 +12455,13 @@
       <c r="I143" s="20" t="s">
         <v>646</v>
       </c>
-      <c r="J143" s="16" t="s">
+      <c r="J143" s="14" t="s">
         <v>647</v>
       </c>
       <c r="K143" s="20" t="s">
         <v>648</v>
       </c>
-      <c r="L143" s="19"/>
+      <c r="L143" s="17"/>
     </row>
     <row r="144" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="7" t="s">
@@ -12483,13 +12483,13 @@
       <c r="I144" s="20" t="s">
         <v>651</v>
       </c>
-      <c r="J144" s="16" t="s">
+      <c r="J144" s="14" t="s">
         <v>652</v>
       </c>
       <c r="K144" s="20" t="s">
         <v>653</v>
       </c>
-      <c r="L144" s="19"/>
+      <c r="L144" s="17"/>
     </row>
     <row r="145" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="8" t="s">
@@ -12511,13 +12511,13 @@
       <c r="I145" s="20" t="s">
         <v>656</v>
       </c>
-      <c r="J145" s="16" t="s">
+      <c r="J145" s="14" t="s">
         <v>657</v>
       </c>
       <c r="K145" s="20" t="s">
         <v>658</v>
       </c>
-      <c r="L145" s="19"/>
+      <c r="L145" s="17"/>
     </row>
     <row r="146" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="7" t="s">
@@ -12539,7 +12539,7 @@
       <c r="I146" s="20"/>
       <c r="J146" s="20"/>
       <c r="K146" s="20"/>
-      <c r="L146" s="19"/>
+      <c r="L146" s="17"/>
     </row>
     <row r="147" spans="1:12" ht="112" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="8" t="s">
@@ -12561,13 +12561,13 @@
       <c r="I147" s="20" t="s">
         <v>663</v>
       </c>
-      <c r="J147" s="16" t="s">
+      <c r="J147" s="14" t="s">
         <v>664</v>
       </c>
       <c r="K147" s="20" t="s">
         <v>665</v>
       </c>
-      <c r="L147" s="19"/>
+      <c r="L147" s="17"/>
     </row>
     <row r="148" spans="1:12" ht="112" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="7" t="s">
@@ -12589,7 +12589,7 @@
       <c r="I148" s="20"/>
       <c r="J148" s="20"/>
       <c r="K148" s="20"/>
-      <c r="L148" s="19"/>
+      <c r="L148" s="17"/>
     </row>
     <row r="149" spans="1:12" ht="112" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="8" t="s">
@@ -12611,13 +12611,13 @@
       <c r="I149" s="20" t="s">
         <v>670</v>
       </c>
-      <c r="J149" s="16" t="s">
+      <c r="J149" s="14" t="s">
         <v>671</v>
       </c>
       <c r="K149" s="20" t="s">
         <v>672</v>
       </c>
-      <c r="L149" s="19"/>
+      <c r="L149" s="17"/>
     </row>
     <row r="150" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="7" t="s">
@@ -12639,7 +12639,7 @@
       <c r="I150" s="20" t="s">
         <v>675</v>
       </c>
-      <c r="J150" s="16" t="s">
+      <c r="J150" s="14" t="s">
         <v>676</v>
       </c>
       <c r="K150" s="20" t="s">
@@ -12669,7 +12669,7 @@
       <c r="I151" s="20"/>
       <c r="J151" s="20"/>
       <c r="K151" s="20"/>
-      <c r="L151" s="19"/>
+      <c r="L151" s="17"/>
     </row>
     <row r="152" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="7" t="s">
@@ -12691,13 +12691,13 @@
       <c r="I152" s="20" t="s">
         <v>683</v>
       </c>
-      <c r="J152" s="16" t="s">
+      <c r="J152" s="14" t="s">
         <v>684</v>
       </c>
       <c r="K152" s="20" t="s">
         <v>685</v>
       </c>
-      <c r="L152" s="19"/>
+      <c r="L152" s="17"/>
     </row>
     <row r="153" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="8" t="s">
@@ -12719,7 +12719,7 @@
       <c r="I153" s="20"/>
       <c r="J153" s="20"/>
       <c r="K153" s="20"/>
-      <c r="L153" s="19"/>
+      <c r="L153" s="17"/>
     </row>
     <row r="154" spans="1:12" ht="64" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="7" t="s">
@@ -12741,13 +12741,13 @@
       <c r="I154" s="20" t="s">
         <v>690</v>
       </c>
-      <c r="J154" s="16" t="s">
+      <c r="J154" s="14" t="s">
         <v>691</v>
       </c>
       <c r="K154" s="20" t="s">
         <v>692</v>
       </c>
-      <c r="L154" s="19"/>
+      <c r="L154" s="17"/>
     </row>
     <row r="155" spans="1:12" ht="64" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="8" t="s">
@@ -12769,13 +12769,13 @@
       <c r="I155" s="20" t="s">
         <v>695</v>
       </c>
-      <c r="J155" s="16" t="s">
+      <c r="J155" s="14" t="s">
         <v>696</v>
       </c>
       <c r="K155" s="20" t="s">
         <v>697</v>
       </c>
-      <c r="L155" s="19"/>
+      <c r="L155" s="17"/>
     </row>
     <row r="156" spans="1:12" ht="64" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="7" t="s">
@@ -12797,13 +12797,13 @@
       <c r="I156" s="20" t="s">
         <v>700</v>
       </c>
-      <c r="J156" s="16" t="s">
+      <c r="J156" s="14" t="s">
         <v>701</v>
       </c>
       <c r="K156" s="20" t="s">
         <v>702</v>
       </c>
-      <c r="L156" s="19"/>
+      <c r="L156" s="17"/>
     </row>
     <row r="157" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="8" t="s">
@@ -12825,13 +12825,13 @@
       <c r="I157" s="20" t="s">
         <v>705</v>
       </c>
-      <c r="J157" s="16" t="s">
+      <c r="J157" s="14" t="s">
         <v>706</v>
       </c>
       <c r="K157" s="20" t="s">
         <v>707</v>
       </c>
-      <c r="L157" s="19"/>
+      <c r="L157" s="17"/>
     </row>
     <row r="158" spans="1:12" ht="112" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="7" t="s">
@@ -12853,13 +12853,13 @@
       <c r="I158" s="20" t="s">
         <v>710</v>
       </c>
-      <c r="J158" s="16" t="s">
+      <c r="J158" s="14" t="s">
         <v>711</v>
       </c>
       <c r="K158" s="20" t="s">
         <v>712</v>
       </c>
-      <c r="L158" s="19"/>
+      <c r="L158" s="17"/>
     </row>
     <row r="159" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="8" t="s">
@@ -12881,13 +12881,13 @@
       <c r="I159" s="20" t="s">
         <v>715</v>
       </c>
-      <c r="J159" s="16" t="s">
+      <c r="J159" s="14" t="s">
         <v>716</v>
       </c>
       <c r="K159" s="20" t="s">
         <v>717</v>
       </c>
-      <c r="L159" s="19"/>
+      <c r="L159" s="17"/>
     </row>
     <row r="160" spans="1:12" ht="112" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="7" t="s">
@@ -12909,13 +12909,13 @@
       <c r="I160" s="20" t="s">
         <v>720</v>
       </c>
-      <c r="J160" s="16" t="s">
+      <c r="J160" s="14" t="s">
         <v>721</v>
       </c>
       <c r="K160" s="20" t="s">
         <v>722</v>
       </c>
-      <c r="L160" s="19"/>
+      <c r="L160" s="17"/>
     </row>
     <row r="161" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="8" t="s">
@@ -12937,13 +12937,13 @@
       <c r="I161" s="20" t="s">
         <v>725</v>
       </c>
-      <c r="J161" s="16" t="s">
+      <c r="J161" s="14" t="s">
         <v>726</v>
       </c>
       <c r="K161" s="20" t="s">
         <v>727</v>
       </c>
-      <c r="L161" s="19"/>
+      <c r="L161" s="17"/>
     </row>
     <row r="162" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="7" t="s">
@@ -12965,7 +12965,7 @@
       <c r="I162" s="20"/>
       <c r="J162" s="20"/>
       <c r="K162" s="20"/>
-      <c r="L162" s="19"/>
+      <c r="L162" s="17"/>
     </row>
     <row r="163" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="8" t="s">
@@ -12981,19 +12981,19 @@
         <v>1242</v>
       </c>
       <c r="E163" s="13" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="F163" s="4"/>
       <c r="I163" s="20" t="s">
         <v>732</v>
       </c>
-      <c r="J163" s="16" t="s">
+      <c r="J163" s="14" t="s">
         <v>733</v>
       </c>
       <c r="K163" s="20" t="s">
         <v>734</v>
       </c>
-      <c r="L163" s="19"/>
+      <c r="L163" s="17"/>
     </row>
     <row r="164" spans="1:12" ht="112" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="7" t="s">
@@ -13015,13 +13015,13 @@
       <c r="I164" s="20" t="s">
         <v>737</v>
       </c>
-      <c r="J164" s="16" t="s">
+      <c r="J164" s="14" t="s">
         <v>738</v>
       </c>
       <c r="K164" s="20" t="s">
         <v>739</v>
       </c>
-      <c r="L164" s="19"/>
+      <c r="L164" s="17"/>
     </row>
     <row r="165" spans="1:12" ht="112" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="8" t="s">
@@ -13043,7 +13043,7 @@
       <c r="I165" s="20"/>
       <c r="J165" s="20"/>
       <c r="K165" s="20"/>
-      <c r="L165" s="19"/>
+      <c r="L165" s="17"/>
     </row>
     <row r="166" spans="1:12" ht="112" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="7" t="s">
@@ -13065,13 +13065,13 @@
       <c r="I166" s="20" t="s">
         <v>744</v>
       </c>
-      <c r="J166" s="16" t="s">
+      <c r="J166" s="14" t="s">
         <v>745</v>
       </c>
       <c r="K166" s="20" t="s">
         <v>746</v>
       </c>
-      <c r="L166" s="19"/>
+      <c r="L166" s="17"/>
     </row>
     <row r="167" spans="1:12" ht="128" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="8" t="s">
@@ -13093,13 +13093,13 @@
       <c r="I167" s="20" t="s">
         <v>749</v>
       </c>
-      <c r="J167" s="16" t="s">
+      <c r="J167" s="14" t="s">
         <v>750</v>
       </c>
       <c r="K167" s="20" t="s">
         <v>751</v>
       </c>
-      <c r="L167" s="19"/>
+      <c r="L167" s="17"/>
     </row>
     <row r="168" spans="1:12" ht="128" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="7" t="s">
@@ -13121,7 +13121,7 @@
       <c r="I168" s="20"/>
       <c r="J168" s="20"/>
       <c r="K168" s="20"/>
-      <c r="L168" s="19"/>
+      <c r="L168" s="17"/>
     </row>
     <row r="169" spans="1:12" ht="64" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="8" t="s">
@@ -13143,13 +13143,13 @@
       <c r="I169" s="20" t="s">
         <v>756</v>
       </c>
-      <c r="J169" s="16" t="s">
+      <c r="J169" s="14" t="s">
         <v>757</v>
       </c>
       <c r="K169" s="20" t="s">
         <v>758</v>
       </c>
-      <c r="L169" s="19"/>
+      <c r="L169" s="17"/>
     </row>
     <row r="170" spans="1:12" ht="64" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="7" t="s">
@@ -13171,13 +13171,13 @@
       <c r="I170" s="20" t="s">
         <v>761</v>
       </c>
-      <c r="J170" s="16" t="s">
+      <c r="J170" s="14" t="s">
         <v>762</v>
       </c>
       <c r="K170" s="20" t="s">
         <v>763</v>
       </c>
-      <c r="L170" s="19"/>
+      <c r="L170" s="17"/>
     </row>
     <row r="171" spans="1:12" ht="160" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="8" t="s">
@@ -13193,13 +13193,13 @@
         <v>1175</v>
       </c>
       <c r="E171" s="13" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="F171" s="4"/>
       <c r="I171" s="20" t="s">
         <v>766</v>
       </c>
-      <c r="J171" s="16" t="s">
+      <c r="J171" s="14" t="s">
         <v>767</v>
       </c>
       <c r="K171" s="20" t="s">
@@ -13229,7 +13229,7 @@
       <c r="I172" s="20"/>
       <c r="J172" s="20"/>
       <c r="K172" s="20"/>
-      <c r="L172" s="19"/>
+      <c r="L172" s="17"/>
     </row>
     <row r="173" spans="1:12" ht="160" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="8" t="s">
@@ -13251,7 +13251,7 @@
       <c r="I173" s="20"/>
       <c r="J173" s="20"/>
       <c r="K173" s="20"/>
-      <c r="L173" s="19"/>
+      <c r="L173" s="17"/>
     </row>
     <row r="174" spans="1:12" ht="160" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="7" t="s">
@@ -13273,7 +13273,7 @@
       <c r="I174" s="20"/>
       <c r="J174" s="20"/>
       <c r="K174" s="20"/>
-      <c r="L174" s="19"/>
+      <c r="L174" s="17"/>
     </row>
     <row r="175" spans="1:12" ht="160" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="8" t="s">
@@ -13295,7 +13295,7 @@
       <c r="I175" s="20"/>
       <c r="J175" s="20"/>
       <c r="K175" s="20"/>
-      <c r="L175" s="19"/>
+      <c r="L175" s="17"/>
     </row>
     <row r="176" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="7" t="s">
@@ -13317,13 +13317,13 @@
       <c r="I176" s="20" t="s">
         <v>780</v>
       </c>
-      <c r="J176" s="16" t="s">
+      <c r="J176" s="14" t="s">
         <v>781</v>
       </c>
       <c r="K176" s="20" t="s">
         <v>782</v>
       </c>
-      <c r="L176" s="19"/>
+      <c r="L176" s="17"/>
     </row>
     <row r="177" spans="1:12" ht="64" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="8" t="s">
@@ -13345,13 +13345,13 @@
       <c r="I177" s="20" t="s">
         <v>785</v>
       </c>
-      <c r="J177" s="16" t="s">
+      <c r="J177" s="14" t="s">
         <v>786</v>
       </c>
       <c r="K177" s="20" t="s">
         <v>787</v>
       </c>
-      <c r="L177" s="19"/>
+      <c r="L177" s="17"/>
     </row>
     <row r="178" spans="1:12" ht="128" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="7" t="s">
@@ -13367,19 +13367,19 @@
         <v>1175</v>
       </c>
       <c r="E178" s="11" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="F178" s="3"/>
       <c r="I178" s="20" t="s">
         <v>790</v>
       </c>
-      <c r="J178" s="16" t="s">
+      <c r="J178" s="14" t="s">
         <v>791</v>
       </c>
       <c r="K178" s="20" t="s">
         <v>792</v>
       </c>
-      <c r="L178" s="19"/>
+      <c r="L178" s="17"/>
     </row>
     <row r="179" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="8" t="s">
@@ -13401,7 +13401,7 @@
       <c r="I179" s="20" t="s">
         <v>795</v>
       </c>
-      <c r="J179" s="16" t="s">
+      <c r="J179" s="14" t="s">
         <v>796</v>
       </c>
       <c r="K179" s="20" t="s">
@@ -13431,7 +13431,7 @@
       <c r="I180" s="20"/>
       <c r="J180" s="20"/>
       <c r="K180" s="20"/>
-      <c r="L180" s="19"/>
+      <c r="L180" s="17"/>
     </row>
     <row r="181" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="8" t="s">
@@ -13447,19 +13447,19 @@
         <v>1175</v>
       </c>
       <c r="E181" s="13" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="F181" s="4"/>
       <c r="I181" s="20" t="s">
         <v>803</v>
       </c>
-      <c r="J181" s="16" t="s">
+      <c r="J181" s="14" t="s">
         <v>804</v>
       </c>
       <c r="K181" s="20" t="s">
         <v>805</v>
       </c>
-      <c r="L181" s="19"/>
+      <c r="L181" s="17"/>
     </row>
     <row r="182" spans="1:12" ht="112" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="7" t="s">
@@ -13481,13 +13481,13 @@
       <c r="I182" s="20" t="s">
         <v>808</v>
       </c>
-      <c r="J182" s="16" t="s">
+      <c r="J182" s="14" t="s">
         <v>809</v>
       </c>
       <c r="K182" s="20" t="s">
         <v>810</v>
       </c>
-      <c r="L182" s="19"/>
+      <c r="L182" s="17"/>
     </row>
     <row r="183" spans="1:12" ht="112" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="8" t="s">
@@ -13509,7 +13509,7 @@
       <c r="I183" s="20"/>
       <c r="J183" s="20"/>
       <c r="K183" s="20"/>
-      <c r="L183" s="19"/>
+      <c r="L183" s="17"/>
     </row>
     <row r="184" spans="1:12" ht="112" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="7" t="s">
@@ -13531,7 +13531,7 @@
       <c r="I184" s="20"/>
       <c r="J184" s="20"/>
       <c r="K184" s="20"/>
-      <c r="L184" s="19"/>
+      <c r="L184" s="17"/>
     </row>
     <row r="185" spans="1:12" ht="112" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="8" t="s">
@@ -13553,7 +13553,7 @@
       <c r="I185" s="20"/>
       <c r="J185" s="20"/>
       <c r="K185" s="20"/>
-      <c r="L185" s="19"/>
+      <c r="L185" s="17"/>
     </row>
     <row r="186" spans="1:12" ht="112" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="7" t="s">
@@ -13575,7 +13575,7 @@
       <c r="I186" s="20"/>
       <c r="J186" s="20"/>
       <c r="K186" s="20"/>
-      <c r="L186" s="19"/>
+      <c r="L186" s="17"/>
     </row>
     <row r="187" spans="1:12" ht="112" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="8" t="s">
@@ -13597,13 +13597,13 @@
       <c r="I187" s="20" t="s">
         <v>821</v>
       </c>
-      <c r="J187" s="16" t="s">
+      <c r="J187" s="14" t="s">
         <v>822</v>
       </c>
       <c r="K187" s="20" t="s">
         <v>823</v>
       </c>
-      <c r="L187" s="19"/>
+      <c r="L187" s="17"/>
     </row>
     <row r="188" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="7" t="s">
@@ -13625,13 +13625,13 @@
       <c r="I188" s="20" t="s">
         <v>826</v>
       </c>
-      <c r="J188" s="16" t="s">
+      <c r="J188" s="14" t="s">
         <v>827</v>
       </c>
       <c r="K188" s="20" t="s">
         <v>828</v>
       </c>
-      <c r="L188" s="19"/>
+      <c r="L188" s="17"/>
     </row>
     <row r="189" spans="1:12" ht="112" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="8" t="s">
@@ -13653,13 +13653,13 @@
       <c r="I189" s="20" t="s">
         <v>831</v>
       </c>
-      <c r="J189" s="16" t="s">
+      <c r="J189" s="14" t="s">
         <v>832</v>
       </c>
       <c r="K189" s="20" t="s">
         <v>833</v>
       </c>
-      <c r="L189" s="19"/>
+      <c r="L189" s="17"/>
     </row>
     <row r="190" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="7" t="s">
@@ -13681,13 +13681,13 @@
       <c r="I190" s="20" t="s">
         <v>836</v>
       </c>
-      <c r="J190" s="16" t="s">
+      <c r="J190" s="14" t="s">
         <v>837</v>
       </c>
       <c r="K190" s="20" t="s">
         <v>838</v>
       </c>
-      <c r="L190" s="19"/>
+      <c r="L190" s="17"/>
     </row>
     <row r="191" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="8" t="s">
@@ -13709,13 +13709,13 @@
       <c r="I191" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="J191" s="16" t="s">
+      <c r="J191" s="14" t="s">
         <v>842</v>
       </c>
       <c r="K191" s="20" t="s">
         <v>843</v>
       </c>
-      <c r="L191" s="19"/>
+      <c r="L191" s="17"/>
     </row>
     <row r="192" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="7" t="s">
@@ -13737,13 +13737,13 @@
       <c r="I192" s="20" t="s">
         <v>846</v>
       </c>
-      <c r="J192" s="16" t="s">
+      <c r="J192" s="14" t="s">
         <v>847</v>
       </c>
       <c r="K192" s="20" t="s">
         <v>848</v>
       </c>
-      <c r="L192" s="19"/>
+      <c r="L192" s="17"/>
     </row>
     <row r="193" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="8" t="s">
@@ -13765,7 +13765,7 @@
       <c r="I193" s="20" t="s">
         <v>851</v>
       </c>
-      <c r="J193" s="16" t="s">
+      <c r="J193" s="14" t="s">
         <v>852</v>
       </c>
       <c r="K193" s="20" t="s">
@@ -13795,7 +13795,7 @@
       <c r="I194" s="20"/>
       <c r="J194" s="20"/>
       <c r="K194" s="20"/>
-      <c r="L194" s="19"/>
+      <c r="L194" s="17"/>
     </row>
     <row r="195" spans="1:12" ht="64" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="8" t="s">
@@ -13817,13 +13817,13 @@
       <c r="I195" s="20" t="s">
         <v>859</v>
       </c>
-      <c r="J195" s="16" t="s">
+      <c r="J195" s="14" t="s">
         <v>860</v>
       </c>
       <c r="K195" s="20" t="s">
         <v>861</v>
       </c>
-      <c r="L195" s="19"/>
+      <c r="L195" s="17"/>
     </row>
     <row r="196" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="7" t="s">
@@ -13845,13 +13845,13 @@
       <c r="I196" s="20" t="s">
         <v>864</v>
       </c>
-      <c r="J196" s="16" t="s">
+      <c r="J196" s="14" t="s">
         <v>865</v>
       </c>
       <c r="K196" s="20" t="s">
         <v>866</v>
       </c>
-      <c r="L196" s="19"/>
+      <c r="L196" s="17"/>
     </row>
     <row r="197" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="8" t="s">
@@ -13873,7 +13873,7 @@
       <c r="I197" s="20"/>
       <c r="J197" s="20"/>
       <c r="K197" s="20"/>
-      <c r="L197" s="19"/>
+      <c r="L197" s="17"/>
     </row>
     <row r="198" spans="1:12" ht="64" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="7" t="s">
@@ -13895,13 +13895,13 @@
       <c r="I198" s="20" t="s">
         <v>871</v>
       </c>
-      <c r="J198" s="16" t="s">
+      <c r="J198" s="14" t="s">
         <v>872</v>
       </c>
       <c r="K198" s="20" t="s">
         <v>873</v>
       </c>
-      <c r="L198" s="19"/>
+      <c r="L198" s="17"/>
     </row>
     <row r="199" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="8" t="s">
@@ -13923,13 +13923,13 @@
       <c r="I199" s="20" t="s">
         <v>876</v>
       </c>
-      <c r="J199" s="16" t="s">
+      <c r="J199" s="14" t="s">
         <v>877</v>
       </c>
       <c r="K199" s="20" t="s">
         <v>878</v>
       </c>
-      <c r="L199" s="19"/>
+      <c r="L199" s="17"/>
     </row>
     <row r="200" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="7" t="s">
@@ -13951,7 +13951,7 @@
       <c r="I200" s="20"/>
       <c r="J200" s="20"/>
       <c r="K200" s="20"/>
-      <c r="L200" s="19"/>
+      <c r="L200" s="17"/>
     </row>
     <row r="201" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="8" t="s">
@@ -13973,13 +13973,13 @@
       <c r="I201" s="20" t="s">
         <v>883</v>
       </c>
-      <c r="J201" s="16" t="s">
+      <c r="J201" s="14" t="s">
         <v>884</v>
       </c>
       <c r="K201" s="20" t="s">
         <v>885</v>
       </c>
-      <c r="L201" s="19"/>
+      <c r="L201" s="17"/>
     </row>
     <row r="202" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="7" t="s">
@@ -14001,13 +14001,13 @@
       <c r="I202" s="20" t="s">
         <v>888</v>
       </c>
-      <c r="J202" s="16" t="s">
+      <c r="J202" s="14" t="s">
         <v>889</v>
       </c>
       <c r="K202" s="20" t="s">
         <v>890</v>
       </c>
-      <c r="L202" s="19"/>
+      <c r="L202" s="17"/>
     </row>
     <row r="203" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="8" t="s">
@@ -14029,7 +14029,7 @@
       <c r="I203" s="20"/>
       <c r="J203" s="20"/>
       <c r="K203" s="20"/>
-      <c r="L203" s="19"/>
+      <c r="L203" s="17"/>
     </row>
     <row r="204" spans="1:12" ht="64" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="7" t="s">
@@ -14051,13 +14051,13 @@
       <c r="I204" s="20" t="s">
         <v>895</v>
       </c>
-      <c r="J204" s="16" t="s">
+      <c r="J204" s="14" t="s">
         <v>896</v>
       </c>
       <c r="K204" s="20" t="s">
         <v>897</v>
       </c>
-      <c r="L204" s="19"/>
+      <c r="L204" s="17"/>
     </row>
     <row r="205" spans="1:12" ht="64" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="8" t="s">
@@ -14079,13 +14079,13 @@
       <c r="I205" s="20" t="s">
         <v>900</v>
       </c>
-      <c r="J205" s="16" t="s">
+      <c r="J205" s="14" t="s">
         <v>901</v>
       </c>
       <c r="K205" s="20" t="s">
         <v>902</v>
       </c>
-      <c r="L205" s="19"/>
+      <c r="L205" s="17"/>
     </row>
     <row r="206" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="7" t="s">
@@ -14107,13 +14107,13 @@
       <c r="I206" s="20" t="s">
         <v>905</v>
       </c>
-      <c r="J206" s="16" t="s">
+      <c r="J206" s="14" t="s">
         <v>906</v>
       </c>
       <c r="K206" s="20" t="s">
         <v>907</v>
       </c>
-      <c r="L206" s="19"/>
+      <c r="L206" s="17"/>
     </row>
     <row r="207" spans="1:12" ht="64" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="8" t="s">
@@ -14135,13 +14135,13 @@
       <c r="I207" s="20" t="s">
         <v>910</v>
       </c>
-      <c r="J207" s="16" t="s">
+      <c r="J207" s="14" t="s">
         <v>911</v>
       </c>
       <c r="K207" s="20" t="s">
         <v>912</v>
       </c>
-      <c r="L207" s="19"/>
+      <c r="L207" s="17"/>
     </row>
     <row r="208" spans="1:12" ht="64" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="7" t="s">
@@ -14163,13 +14163,13 @@
       <c r="I208" s="20" t="s">
         <v>915</v>
       </c>
-      <c r="J208" s="16" t="s">
+      <c r="J208" s="14" t="s">
         <v>916</v>
       </c>
       <c r="K208" s="20" t="s">
         <v>917</v>
       </c>
-      <c r="L208" s="19"/>
+      <c r="L208" s="17"/>
     </row>
     <row r="209" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="8" t="s">
@@ -14191,13 +14191,13 @@
       <c r="I209" s="20" t="s">
         <v>920</v>
       </c>
-      <c r="J209" s="16" t="s">
+      <c r="J209" s="14" t="s">
         <v>921</v>
       </c>
       <c r="K209" s="20" t="s">
         <v>922</v>
       </c>
-      <c r="L209" s="19"/>
+      <c r="L209" s="17"/>
     </row>
     <row r="210" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="7" t="s">
@@ -14219,7 +14219,7 @@
       <c r="I210" s="20"/>
       <c r="J210" s="20"/>
       <c r="K210" s="20"/>
-      <c r="L210" s="19"/>
+      <c r="L210" s="17"/>
     </row>
     <row r="211" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="8" t="s">
@@ -14241,7 +14241,7 @@
       <c r="I211" s="20" t="s">
         <v>927</v>
       </c>
-      <c r="J211" s="16" t="s">
+      <c r="J211" s="14" t="s">
         <v>928</v>
       </c>
       <c r="K211" s="20" t="s">
@@ -14271,7 +14271,7 @@
       <c r="I212" s="20"/>
       <c r="J212" s="20"/>
       <c r="K212" s="20"/>
-      <c r="L212" s="19"/>
+      <c r="L212" s="17"/>
     </row>
     <row r="213" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="8" t="s">
@@ -14293,13 +14293,13 @@
       <c r="I213" s="20" t="s">
         <v>935</v>
       </c>
-      <c r="J213" s="16" t="s">
+      <c r="J213" s="14" t="s">
         <v>936</v>
       </c>
       <c r="K213" s="20" t="s">
         <v>937</v>
       </c>
-      <c r="L213" s="19"/>
+      <c r="L213" s="17"/>
     </row>
     <row r="214" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="7" t="s">
@@ -14321,7 +14321,7 @@
       <c r="I214" s="20"/>
       <c r="J214" s="20"/>
       <c r="K214" s="20"/>
-      <c r="L214" s="19"/>
+      <c r="L214" s="17"/>
     </row>
     <row r="215" spans="1:12" ht="128" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="8" t="s">
@@ -14343,13 +14343,13 @@
       <c r="I215" s="20" t="s">
         <v>942</v>
       </c>
-      <c r="J215" s="16" t="s">
+      <c r="J215" s="14" t="s">
         <v>943</v>
       </c>
       <c r="K215" s="20" t="s">
         <v>944</v>
       </c>
-      <c r="L215" s="19"/>
+      <c r="L215" s="17"/>
     </row>
     <row r="216" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="7" t="s">
@@ -14371,13 +14371,13 @@
       <c r="I216" s="20" t="s">
         <v>947</v>
       </c>
-      <c r="J216" s="16" t="s">
+      <c r="J216" s="14" t="s">
         <v>948</v>
       </c>
       <c r="K216" s="20" t="s">
         <v>949</v>
       </c>
-      <c r="L216" s="19"/>
+      <c r="L216" s="17"/>
     </row>
     <row r="217" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="8" t="s">
@@ -14399,13 +14399,13 @@
       <c r="I217" s="20" t="s">
         <v>952</v>
       </c>
-      <c r="J217" s="16" t="s">
+      <c r="J217" s="14" t="s">
         <v>953</v>
       </c>
       <c r="K217" s="20" t="s">
         <v>954</v>
       </c>
-      <c r="L217" s="19"/>
+      <c r="L217" s="17"/>
     </row>
     <row r="218" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="7" t="s">
@@ -14427,13 +14427,13 @@
       <c r="I218" s="20" t="s">
         <v>957</v>
       </c>
-      <c r="J218" s="16" t="s">
+      <c r="J218" s="14" t="s">
         <v>958</v>
       </c>
       <c r="K218" s="20" t="s">
         <v>959</v>
       </c>
-      <c r="L218" s="19"/>
+      <c r="L218" s="17"/>
     </row>
     <row r="219" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="8" t="s">
@@ -14455,13 +14455,13 @@
       <c r="I219" s="20" t="s">
         <v>962</v>
       </c>
-      <c r="J219" s="16" t="s">
+      <c r="J219" s="14" t="s">
         <v>963</v>
       </c>
       <c r="K219" s="20" t="s">
         <v>964</v>
       </c>
-      <c r="L219" s="19"/>
+      <c r="L219" s="17"/>
     </row>
     <row r="220" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="7" t="s">
@@ -14483,7 +14483,7 @@
       <c r="I220" s="20"/>
       <c r="J220" s="20"/>
       <c r="K220" s="20"/>
-      <c r="L220" s="19"/>
+      <c r="L220" s="17"/>
     </row>
     <row r="221" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="8" t="s">
@@ -14505,13 +14505,13 @@
       <c r="I221" s="20" t="s">
         <v>969</v>
       </c>
-      <c r="J221" s="16" t="s">
+      <c r="J221" s="14" t="s">
         <v>970</v>
       </c>
       <c r="K221" s="20" t="s">
         <v>971</v>
       </c>
-      <c r="L221" s="19"/>
+      <c r="L221" s="17"/>
     </row>
     <row r="222" spans="1:12" ht="128" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="7" t="s">
@@ -14533,7 +14533,7 @@
       <c r="I222" s="20" t="s">
         <v>974</v>
       </c>
-      <c r="J222" s="16" t="s">
+      <c r="J222" s="14" t="s">
         <v>975</v>
       </c>
       <c r="K222" s="20" t="s">
@@ -14563,7 +14563,7 @@
       <c r="I223" s="20"/>
       <c r="J223" s="20"/>
       <c r="K223" s="20"/>
-      <c r="L223" s="19"/>
+      <c r="L223" s="17"/>
     </row>
     <row r="224" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="7" t="s">
@@ -14585,13 +14585,13 @@
       <c r="I224" s="20" t="s">
         <v>982</v>
       </c>
-      <c r="J224" s="16" t="s">
+      <c r="J224" s="14" t="s">
         <v>983</v>
       </c>
       <c r="K224" s="20" t="s">
         <v>984</v>
       </c>
-      <c r="L224" s="19"/>
+      <c r="L224" s="17"/>
     </row>
     <row r="225" spans="1:12" ht="64" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" s="8" t="s">
@@ -14613,13 +14613,13 @@
       <c r="I225" s="20" t="s">
         <v>987</v>
       </c>
-      <c r="J225" s="16" t="s">
+      <c r="J225" s="14" t="s">
         <v>988</v>
       </c>
       <c r="K225" s="20" t="s">
         <v>989</v>
       </c>
-      <c r="L225" s="19"/>
+      <c r="L225" s="17"/>
     </row>
     <row r="226" spans="1:12" ht="64" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="7" t="s">
@@ -14641,13 +14641,13 @@
       <c r="I226" s="20" t="s">
         <v>992</v>
       </c>
-      <c r="J226" s="16" t="s">
+      <c r="J226" s="14" t="s">
         <v>993</v>
       </c>
       <c r="K226" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="L226" s="19"/>
+      <c r="L226" s="17"/>
     </row>
     <row r="227" spans="1:12" ht="64" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" s="8" t="s">
@@ -14669,13 +14669,13 @@
       <c r="I227" s="20" t="s">
         <v>996</v>
       </c>
-      <c r="J227" s="16" t="s">
+      <c r="J227" s="14" t="s">
         <v>997</v>
       </c>
       <c r="K227" s="20" t="s">
         <v>998</v>
       </c>
-      <c r="L227" s="19"/>
+      <c r="L227" s="17"/>
     </row>
     <row r="228" spans="1:12" ht="64" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" s="7" t="s">
@@ -14697,13 +14697,13 @@
       <c r="I228" s="20" t="s">
         <v>1001</v>
       </c>
-      <c r="J228" s="16" t="s">
+      <c r="J228" s="14" t="s">
         <v>1002</v>
       </c>
       <c r="K228" s="20" t="s">
         <v>1003</v>
       </c>
-      <c r="L228" s="19"/>
+      <c r="L228" s="17"/>
     </row>
     <row r="229" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A229" s="8" t="s">
@@ -14725,13 +14725,13 @@
       <c r="I229" s="20" t="s">
         <v>1006</v>
       </c>
-      <c r="J229" s="16" t="s">
+      <c r="J229" s="14" t="s">
         <v>1007</v>
       </c>
       <c r="K229" s="20" t="s">
         <v>1008</v>
       </c>
-      <c r="L229" s="19"/>
+      <c r="L229" s="17"/>
     </row>
     <row r="230" spans="1:12" ht="64" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" s="7" t="s">
@@ -14753,13 +14753,13 @@
       <c r="I230" s="20" t="s">
         <v>1011</v>
       </c>
-      <c r="J230" s="16" t="s">
+      <c r="J230" s="14" t="s">
         <v>1012</v>
       </c>
       <c r="K230" s="20" t="s">
         <v>1013</v>
       </c>
-      <c r="L230" s="19"/>
+      <c r="L230" s="17"/>
     </row>
     <row r="231" spans="1:12" ht="224" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" s="8" t="s">
@@ -14781,13 +14781,13 @@
       <c r="I231" s="20" t="s">
         <v>1016</v>
       </c>
-      <c r="J231" s="16" t="s">
+      <c r="J231" s="14" t="s">
         <v>1017</v>
       </c>
       <c r="K231" s="20" t="s">
         <v>1018</v>
       </c>
-      <c r="L231" s="19"/>
+      <c r="L231" s="17"/>
     </row>
     <row r="232" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" s="7" t="s">
@@ -14809,13 +14809,13 @@
       <c r="I232" s="20" t="s">
         <v>1021</v>
       </c>
-      <c r="J232" s="16" t="s">
+      <c r="J232" s="14" t="s">
         <v>1022</v>
       </c>
       <c r="K232" s="20" t="s">
         <v>1023</v>
       </c>
-      <c r="L232" s="19"/>
+      <c r="L232" s="17"/>
     </row>
     <row r="233" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" s="8" t="s">
@@ -14837,13 +14837,13 @@
       <c r="I233" s="20" t="s">
         <v>1026</v>
       </c>
-      <c r="J233" s="16" t="s">
+      <c r="J233" s="14" t="s">
         <v>1027</v>
       </c>
       <c r="K233" s="20" t="s">
         <v>1028</v>
       </c>
-      <c r="L233" s="19"/>
+      <c r="L233" s="17"/>
     </row>
     <row r="234" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" s="7" t="s">
@@ -14865,13 +14865,13 @@
       <c r="I234" s="20" t="s">
         <v>1031</v>
       </c>
-      <c r="J234" s="16" t="s">
+      <c r="J234" s="14" t="s">
         <v>1032</v>
       </c>
       <c r="K234" s="20" t="s">
         <v>1033</v>
       </c>
-      <c r="L234" s="19"/>
+      <c r="L234" s="17"/>
     </row>
     <row r="235" spans="1:12" ht="64" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A235" s="8" t="s">
@@ -14893,13 +14893,13 @@
       <c r="I235" s="20" t="s">
         <v>1036</v>
       </c>
-      <c r="J235" s="16" t="s">
+      <c r="J235" s="14" t="s">
         <v>1037</v>
       </c>
       <c r="K235" s="20" t="s">
         <v>1038</v>
       </c>
-      <c r="L235" s="19"/>
+      <c r="L235" s="17"/>
     </row>
     <row r="236" spans="1:12" ht="64" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A236" s="7" t="s">
@@ -14921,13 +14921,13 @@
       <c r="I236" s="20" t="s">
         <v>1041</v>
       </c>
-      <c r="J236" s="16" t="s">
+      <c r="J236" s="14" t="s">
         <v>1042</v>
       </c>
       <c r="K236" s="20" t="s">
         <v>1043</v>
       </c>
-      <c r="L236" s="19"/>
+      <c r="L236" s="17"/>
     </row>
     <row r="237" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A237" s="8" t="s">
@@ -14949,7 +14949,7 @@
       <c r="I237" s="20" t="s">
         <v>1046</v>
       </c>
-      <c r="J237" s="16" t="s">
+      <c r="J237" s="14" t="s">
         <v>1047</v>
       </c>
       <c r="K237" s="20" t="s">
@@ -14979,7 +14979,7 @@
       <c r="I238" s="20"/>
       <c r="J238" s="20"/>
       <c r="K238" s="20"/>
-      <c r="L238" s="19"/>
+      <c r="L238" s="17"/>
     </row>
     <row r="239" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A239" s="8" t="s">
@@ -15001,13 +15001,13 @@
       <c r="I239" s="20" t="s">
         <v>1054</v>
       </c>
-      <c r="J239" s="16" t="s">
+      <c r="J239" s="14" t="s">
         <v>1055</v>
       </c>
       <c r="K239" s="20" t="s">
         <v>1056</v>
       </c>
-      <c r="L239" s="19"/>
+      <c r="L239" s="17"/>
     </row>
     <row r="240" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A240" s="7" t="s">
@@ -15029,7 +15029,7 @@
       <c r="I240" s="20"/>
       <c r="J240" s="20"/>
       <c r="K240" s="20"/>
-      <c r="L240" s="19"/>
+      <c r="L240" s="17"/>
     </row>
     <row r="241" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A241" s="8" t="s">
@@ -15051,13 +15051,13 @@
       <c r="I241" s="20" t="s">
         <v>1061</v>
       </c>
-      <c r="J241" s="16" t="s">
+      <c r="J241" s="14" t="s">
         <v>1062</v>
       </c>
       <c r="K241" s="20" t="s">
         <v>1063</v>
       </c>
-      <c r="L241" s="19"/>
+      <c r="L241" s="17"/>
     </row>
     <row r="242" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A242" s="7" t="s">
@@ -15079,13 +15079,13 @@
       <c r="I242" s="20" t="s">
         <v>1066</v>
       </c>
-      <c r="J242" s="16" t="s">
+      <c r="J242" s="14" t="s">
         <v>1067</v>
       </c>
       <c r="K242" s="20" t="s">
         <v>1068</v>
       </c>
-      <c r="L242" s="19"/>
+      <c r="L242" s="17"/>
     </row>
     <row r="243" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A243" s="8" t="s">
@@ -15107,13 +15107,13 @@
       <c r="I243" s="20" t="s">
         <v>1071</v>
       </c>
-      <c r="J243" s="16" t="s">
+      <c r="J243" s="14" t="s">
         <v>1072</v>
       </c>
       <c r="K243" s="20" t="s">
         <v>1073</v>
       </c>
-      <c r="L243" s="19"/>
+      <c r="L243" s="17"/>
     </row>
     <row r="244" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A244" s="7" t="s">
@@ -15135,13 +15135,13 @@
       <c r="I244" s="20" t="s">
         <v>1076</v>
       </c>
-      <c r="J244" s="16" t="s">
+      <c r="J244" s="14" t="s">
         <v>1077</v>
       </c>
       <c r="K244" s="20" t="s">
         <v>1078</v>
       </c>
-      <c r="L244" s="19"/>
+      <c r="L244" s="17"/>
     </row>
     <row r="245" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A245" s="8" t="s">
@@ -15163,13 +15163,13 @@
       <c r="I245" s="20" t="s">
         <v>1081</v>
       </c>
-      <c r="J245" s="16" t="s">
+      <c r="J245" s="14" t="s">
         <v>1082</v>
       </c>
       <c r="K245" s="20" t="s">
         <v>1083</v>
       </c>
-      <c r="L245" s="19"/>
+      <c r="L245" s="17"/>
     </row>
     <row r="246" spans="1:12" ht="64" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A246" s="7" t="s">
@@ -15185,19 +15185,19 @@
         <v>1175</v>
       </c>
       <c r="E246" s="10" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="F246" s="3"/>
       <c r="I246" s="20" t="s">
         <v>1086</v>
       </c>
-      <c r="J246" s="16" t="s">
+      <c r="J246" s="14" t="s">
         <v>1087</v>
       </c>
       <c r="K246" s="20" t="s">
         <v>1088</v>
       </c>
-      <c r="L246" s="19"/>
+      <c r="L246" s="17"/>
     </row>
     <row r="247" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A247" s="8" t="s">
@@ -15219,13 +15219,13 @@
       <c r="I247" s="20" t="s">
         <v>1091</v>
       </c>
-      <c r="J247" s="16" t="s">
+      <c r="J247" s="14" t="s">
         <v>1092</v>
       </c>
       <c r="K247" s="20" t="s">
         <v>1093</v>
       </c>
-      <c r="L247" s="19"/>
+      <c r="L247" s="17"/>
     </row>
     <row r="248" spans="1:12" ht="64" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A248" s="7" t="s">
@@ -15247,13 +15247,13 @@
       <c r="I248" s="20" t="s">
         <v>1096</v>
       </c>
-      <c r="J248" s="16" t="s">
+      <c r="J248" s="14" t="s">
         <v>1097</v>
       </c>
       <c r="K248" s="20" t="s">
         <v>1098</v>
       </c>
-      <c r="L248" s="19"/>
+      <c r="L248" s="17"/>
     </row>
     <row r="249" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A249" s="8" t="s">
@@ -15275,7 +15275,7 @@
       <c r="I249" s="20" t="s">
         <v>1101</v>
       </c>
-      <c r="J249" s="16" t="s">
+      <c r="J249" s="14" t="s">
         <v>1102</v>
       </c>
       <c r="K249" s="20" t="s">
@@ -15305,7 +15305,7 @@
       <c r="I250" s="20"/>
       <c r="J250" s="20"/>
       <c r="K250" s="20"/>
-      <c r="L250" s="19"/>
+      <c r="L250" s="17"/>
     </row>
     <row r="251" spans="1:12" ht="112" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A251" s="8" t="s">
@@ -15327,13 +15327,13 @@
       <c r="I251" s="20" t="s">
         <v>1109</v>
       </c>
-      <c r="J251" s="16" t="s">
+      <c r="J251" s="14" t="s">
         <v>1110</v>
       </c>
       <c r="K251" s="20" t="s">
         <v>1111</v>
       </c>
-      <c r="L251" s="19"/>
+      <c r="L251" s="17"/>
     </row>
     <row r="252" spans="1:12" ht="64" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A252" s="7" t="s">
@@ -15355,13 +15355,13 @@
       <c r="I252" s="20" t="s">
         <v>1114</v>
       </c>
-      <c r="J252" s="16" t="s">
+      <c r="J252" s="14" t="s">
         <v>1115</v>
       </c>
       <c r="K252" s="20" t="s">
         <v>1116</v>
       </c>
-      <c r="L252" s="19"/>
+      <c r="L252" s="17"/>
     </row>
     <row r="253" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A253" s="8" t="s">
@@ -15383,13 +15383,13 @@
       <c r="I253" s="20" t="s">
         <v>1119</v>
       </c>
-      <c r="J253" s="16" t="s">
+      <c r="J253" s="14" t="s">
         <v>1120</v>
       </c>
       <c r="K253" s="20" t="s">
         <v>1121</v>
       </c>
-      <c r="L253" s="19"/>
+      <c r="L253" s="17"/>
     </row>
     <row r="254" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A254" s="7" t="s">
@@ -15411,13 +15411,13 @@
       <c r="I254" s="20" t="s">
         <v>1124</v>
       </c>
-      <c r="J254" s="16" t="s">
+      <c r="J254" s="14" t="s">
         <v>1125</v>
       </c>
       <c r="K254" s="20" t="s">
         <v>1126</v>
       </c>
-      <c r="L254" s="19"/>
+      <c r="L254" s="17"/>
     </row>
     <row r="255" spans="1:12" ht="64" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A255" s="8" t="s">
@@ -15439,13 +15439,13 @@
       <c r="I255" s="20" t="s">
         <v>1129</v>
       </c>
-      <c r="J255" s="16" t="s">
+      <c r="J255" s="14" t="s">
         <v>1130</v>
       </c>
       <c r="K255" s="20" t="s">
         <v>1131</v>
       </c>
-      <c r="L255" s="19"/>
+      <c r="L255" s="17"/>
     </row>
     <row r="256" spans="1:12" ht="64" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A256" s="7" t="s">
@@ -15467,13 +15467,13 @@
       <c r="I256" s="20" t="s">
         <v>1134</v>
       </c>
-      <c r="J256" s="16" t="s">
+      <c r="J256" s="14" t="s">
         <v>1135</v>
       </c>
       <c r="K256" s="20" t="s">
         <v>1136</v>
       </c>
-      <c r="L256" s="19"/>
+      <c r="L256" s="17"/>
     </row>
     <row r="257" spans="1:12" ht="64" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A257" s="8" t="s">
@@ -15495,13 +15495,13 @@
       <c r="I257" s="20" t="s">
         <v>1139</v>
       </c>
-      <c r="J257" s="16" t="s">
+      <c r="J257" s="14" t="s">
         <v>1140</v>
       </c>
       <c r="K257" s="20" t="s">
         <v>1141</v>
       </c>
-      <c r="L257" s="19"/>
+      <c r="L257" s="17"/>
     </row>
     <row r="258" spans="1:12" ht="64" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A258" s="7" t="s">
@@ -15523,13 +15523,13 @@
       <c r="I258" s="20" t="s">
         <v>1144</v>
       </c>
-      <c r="J258" s="16" t="s">
+      <c r="J258" s="14" t="s">
         <v>1145</v>
       </c>
       <c r="K258" s="20" t="s">
         <v>1146</v>
       </c>
-      <c r="L258" s="19"/>
+      <c r="L258" s="17"/>
     </row>
     <row r="259" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A259" s="8" t="s">
@@ -15551,13 +15551,13 @@
       <c r="I259" s="20" t="s">
         <v>1149</v>
       </c>
-      <c r="J259" s="16" t="s">
+      <c r="J259" s="14" t="s">
         <v>1150</v>
       </c>
       <c r="K259" s="20" t="s">
         <v>1151</v>
       </c>
-      <c r="L259" s="19"/>
+      <c r="L259" s="17"/>
     </row>
     <row r="260" spans="1:12" ht="64" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A260" s="7" t="s">
@@ -15579,13 +15579,13 @@
       <c r="I260" s="20" t="s">
         <v>1154</v>
       </c>
-      <c r="J260" s="16" t="s">
+      <c r="J260" s="14" t="s">
         <v>1155</v>
       </c>
       <c r="K260" s="20" t="s">
         <v>1156</v>
       </c>
-      <c r="L260" s="19"/>
+      <c r="L260" s="17"/>
     </row>
     <row r="261" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A261" s="8" t="s">
@@ -15607,13 +15607,13 @@
       <c r="I261" s="20" t="s">
         <v>1159</v>
       </c>
-      <c r="J261" s="16" t="s">
+      <c r="J261" s="14" t="s">
         <v>1160</v>
       </c>
       <c r="K261" s="20" t="s">
         <v>1161</v>
       </c>
-      <c r="L261" s="19"/>
+      <c r="L261" s="17"/>
     </row>
     <row r="262" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A262" s="7" t="s">
@@ -15635,13 +15635,13 @@
       <c r="I262" s="20" t="s">
         <v>1164</v>
       </c>
-      <c r="J262" s="16" t="s">
+      <c r="J262" s="14" t="s">
         <v>1165</v>
       </c>
       <c r="K262" s="20" t="s">
         <v>1166</v>
       </c>
-      <c r="L262" s="19"/>
+      <c r="L262" s="17"/>
     </row>
     <row r="263" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A263" s="8" t="s">
@@ -15663,25 +15663,25 @@
       <c r="I263" s="20" t="s">
         <v>1169</v>
       </c>
-      <c r="J263" s="16" t="s">
+      <c r="J263" s="14" t="s">
         <v>1170</v>
       </c>
       <c r="K263" s="20" t="s">
         <v>1171</v>
       </c>
-      <c r="L263" s="19"/>
+      <c r="L263" s="17"/>
     </row>
     <row r="264" spans="1:12" ht="32" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A264" s="18" t="s">
+      <c r="A264" s="16" t="s">
         <v>1172</v>
       </c>
-      <c r="B264" s="18" t="s">
-        <v>1173</v>
-      </c>
-      <c r="C264" s="18" t="s">
-        <v>1173</v>
-      </c>
-      <c r="D264" s="18" t="s">
+      <c r="B264" s="16" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C264" s="16" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D264" s="16" t="s">
         <v>1173</v>
       </c>
       <c r="E264" s="2" t="s">
@@ -15710,40 +15710,591 @@
       </c>
     </row>
     <row r="265" spans="1:12" ht="160" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A265" s="16" t="s">
+      <c r="A265" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B265" s="16" t="s">
-        <v>1173</v>
-      </c>
-      <c r="C265" s="16" t="s">
-        <v>1173</v>
-      </c>
-      <c r="D265" s="16" t="s">
+      <c r="B265" s="14" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C265" s="14" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D265" s="14" t="s">
         <v>1173</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection password="E8F4" sheet="1" formatColumns="0" formatRows="0" autoFilter="0"/>
   <mergeCells count="611">
-    <mergeCell ref="I262"/>
-    <mergeCell ref="J262"/>
-    <mergeCell ref="K262"/>
-    <mergeCell ref="I263"/>
-    <mergeCell ref="J263"/>
-    <mergeCell ref="K263"/>
-    <mergeCell ref="A264:D264"/>
-    <mergeCell ref="A265:D265"/>
-    <mergeCell ref="K258"/>
-    <mergeCell ref="I259"/>
-    <mergeCell ref="J259"/>
-    <mergeCell ref="K259"/>
-    <mergeCell ref="I260"/>
-    <mergeCell ref="J260"/>
-    <mergeCell ref="K260"/>
-    <mergeCell ref="I261"/>
-    <mergeCell ref="J261"/>
-    <mergeCell ref="K261"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L10"/>
+    <mergeCell ref="I5"/>
+    <mergeCell ref="J5"/>
+    <mergeCell ref="K5"/>
+    <mergeCell ref="I6"/>
+    <mergeCell ref="J6"/>
+    <mergeCell ref="K6"/>
+    <mergeCell ref="I7"/>
+    <mergeCell ref="J7"/>
+    <mergeCell ref="K7"/>
+    <mergeCell ref="I8"/>
+    <mergeCell ref="J8"/>
+    <mergeCell ref="K8"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L21"/>
+    <mergeCell ref="I13"/>
+    <mergeCell ref="J13"/>
+    <mergeCell ref="K13"/>
+    <mergeCell ref="I14"/>
+    <mergeCell ref="J14"/>
+    <mergeCell ref="K14"/>
+    <mergeCell ref="I15"/>
+    <mergeCell ref="J15"/>
+    <mergeCell ref="K15"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="L22:L39"/>
+    <mergeCell ref="I24"/>
+    <mergeCell ref="J24"/>
+    <mergeCell ref="K24"/>
+    <mergeCell ref="I25"/>
+    <mergeCell ref="J25"/>
+    <mergeCell ref="K25"/>
+    <mergeCell ref="I26"/>
+    <mergeCell ref="J26"/>
+    <mergeCell ref="K26"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="J27:J29"/>
+    <mergeCell ref="K27:K29"/>
+    <mergeCell ref="I30"/>
+    <mergeCell ref="J30"/>
+    <mergeCell ref="K30"/>
+    <mergeCell ref="I31"/>
+    <mergeCell ref="J31"/>
+    <mergeCell ref="K31"/>
+    <mergeCell ref="I32:I34"/>
+    <mergeCell ref="J32:J34"/>
+    <mergeCell ref="K32:K34"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="I39"/>
+    <mergeCell ref="J39"/>
+    <mergeCell ref="K39"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="L40:L50"/>
+    <mergeCell ref="I42"/>
+    <mergeCell ref="J42"/>
+    <mergeCell ref="K42"/>
+    <mergeCell ref="I43"/>
+    <mergeCell ref="J43"/>
+    <mergeCell ref="K43"/>
+    <mergeCell ref="I44"/>
+    <mergeCell ref="J44"/>
+    <mergeCell ref="K44"/>
+    <mergeCell ref="I45"/>
+    <mergeCell ref="J45"/>
+    <mergeCell ref="K45"/>
+    <mergeCell ref="I46"/>
+    <mergeCell ref="J46"/>
+    <mergeCell ref="K46"/>
+    <mergeCell ref="I47"/>
+    <mergeCell ref="J47"/>
+    <mergeCell ref="K47"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="J48:J49"/>
+    <mergeCell ref="K48:K49"/>
+    <mergeCell ref="I50"/>
+    <mergeCell ref="J50"/>
+    <mergeCell ref="K50"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="L51:L73"/>
+    <mergeCell ref="I53"/>
+    <mergeCell ref="J53"/>
+    <mergeCell ref="K53"/>
+    <mergeCell ref="I54"/>
+    <mergeCell ref="J54"/>
+    <mergeCell ref="K54"/>
+    <mergeCell ref="I55"/>
+    <mergeCell ref="J55"/>
+    <mergeCell ref="K55"/>
+    <mergeCell ref="I56"/>
+    <mergeCell ref="J56"/>
+    <mergeCell ref="K56"/>
+    <mergeCell ref="I57"/>
+    <mergeCell ref="J57"/>
+    <mergeCell ref="K57"/>
+    <mergeCell ref="I58"/>
+    <mergeCell ref="J58"/>
+    <mergeCell ref="K58"/>
+    <mergeCell ref="I59"/>
+    <mergeCell ref="J59"/>
+    <mergeCell ref="K59"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="J60:J61"/>
+    <mergeCell ref="K60:K61"/>
+    <mergeCell ref="I62"/>
+    <mergeCell ref="J62"/>
+    <mergeCell ref="K62"/>
+    <mergeCell ref="I63"/>
+    <mergeCell ref="J63"/>
+    <mergeCell ref="K63"/>
+    <mergeCell ref="I64"/>
+    <mergeCell ref="J64"/>
+    <mergeCell ref="K64"/>
+    <mergeCell ref="I65"/>
+    <mergeCell ref="J65"/>
+    <mergeCell ref="K65"/>
+    <mergeCell ref="I66"/>
+    <mergeCell ref="J66"/>
+    <mergeCell ref="K66"/>
+    <mergeCell ref="I67"/>
+    <mergeCell ref="J67"/>
+    <mergeCell ref="K67"/>
+    <mergeCell ref="I68"/>
+    <mergeCell ref="J68"/>
+    <mergeCell ref="K68"/>
+    <mergeCell ref="I69"/>
+    <mergeCell ref="J69"/>
+    <mergeCell ref="K69"/>
+    <mergeCell ref="I70"/>
+    <mergeCell ref="J70"/>
+    <mergeCell ref="K70"/>
+    <mergeCell ref="I71"/>
+    <mergeCell ref="J71"/>
+    <mergeCell ref="K71"/>
+    <mergeCell ref="I72"/>
+    <mergeCell ref="J72"/>
+    <mergeCell ref="K72"/>
+    <mergeCell ref="I73"/>
+    <mergeCell ref="J73"/>
+    <mergeCell ref="K73"/>
+    <mergeCell ref="I74:I76"/>
+    <mergeCell ref="J74:J76"/>
+    <mergeCell ref="K74:K76"/>
+    <mergeCell ref="L74:L96"/>
+    <mergeCell ref="I77:I79"/>
+    <mergeCell ref="J77:J79"/>
+    <mergeCell ref="K77:K79"/>
+    <mergeCell ref="I80:I81"/>
+    <mergeCell ref="J80:J81"/>
+    <mergeCell ref="K80:K81"/>
+    <mergeCell ref="I82:I83"/>
+    <mergeCell ref="J82:J83"/>
+    <mergeCell ref="K82:K83"/>
+    <mergeCell ref="I84"/>
+    <mergeCell ref="J84"/>
+    <mergeCell ref="K84"/>
+    <mergeCell ref="I85"/>
+    <mergeCell ref="J85"/>
+    <mergeCell ref="K85"/>
+    <mergeCell ref="I86:I87"/>
+    <mergeCell ref="J86:J87"/>
+    <mergeCell ref="K86:K87"/>
+    <mergeCell ref="I88"/>
+    <mergeCell ref="J88"/>
+    <mergeCell ref="K88"/>
+    <mergeCell ref="I89:I90"/>
+    <mergeCell ref="J89:J90"/>
+    <mergeCell ref="K89:K90"/>
+    <mergeCell ref="I91"/>
+    <mergeCell ref="J91"/>
+    <mergeCell ref="K91"/>
+    <mergeCell ref="I92"/>
+    <mergeCell ref="J92"/>
+    <mergeCell ref="K92"/>
+    <mergeCell ref="I93"/>
+    <mergeCell ref="J93"/>
+    <mergeCell ref="K93"/>
+    <mergeCell ref="I94"/>
+    <mergeCell ref="J94"/>
+    <mergeCell ref="K94"/>
+    <mergeCell ref="I95"/>
+    <mergeCell ref="J95"/>
+    <mergeCell ref="K95"/>
+    <mergeCell ref="I96"/>
+    <mergeCell ref="J96"/>
+    <mergeCell ref="K96"/>
+    <mergeCell ref="I97:I98"/>
+    <mergeCell ref="J97:J98"/>
+    <mergeCell ref="K97:K98"/>
+    <mergeCell ref="L97:L120"/>
+    <mergeCell ref="I99"/>
+    <mergeCell ref="J99"/>
+    <mergeCell ref="K99"/>
+    <mergeCell ref="I100"/>
+    <mergeCell ref="J100"/>
+    <mergeCell ref="K100"/>
+    <mergeCell ref="I101"/>
+    <mergeCell ref="J101"/>
+    <mergeCell ref="K101"/>
+    <mergeCell ref="I102:I103"/>
+    <mergeCell ref="J102:J103"/>
+    <mergeCell ref="K102:K103"/>
+    <mergeCell ref="I104:I105"/>
+    <mergeCell ref="J104:J105"/>
+    <mergeCell ref="K104:K105"/>
+    <mergeCell ref="I106"/>
+    <mergeCell ref="J106"/>
+    <mergeCell ref="K106"/>
+    <mergeCell ref="I107:I108"/>
+    <mergeCell ref="J107:J108"/>
+    <mergeCell ref="K107:K108"/>
+    <mergeCell ref="I109"/>
+    <mergeCell ref="J109"/>
+    <mergeCell ref="K109"/>
+    <mergeCell ref="I110"/>
+    <mergeCell ref="J110"/>
+    <mergeCell ref="K110"/>
+    <mergeCell ref="I111"/>
+    <mergeCell ref="J111"/>
+    <mergeCell ref="K111"/>
+    <mergeCell ref="I112"/>
+    <mergeCell ref="J112"/>
+    <mergeCell ref="K112"/>
+    <mergeCell ref="I113"/>
+    <mergeCell ref="J113"/>
+    <mergeCell ref="K113"/>
+    <mergeCell ref="I114"/>
+    <mergeCell ref="J114"/>
+    <mergeCell ref="K114"/>
+    <mergeCell ref="I115"/>
+    <mergeCell ref="J115"/>
+    <mergeCell ref="K115"/>
+    <mergeCell ref="I116"/>
+    <mergeCell ref="J116"/>
+    <mergeCell ref="K116"/>
+    <mergeCell ref="I117"/>
+    <mergeCell ref="J117"/>
+    <mergeCell ref="K117"/>
+    <mergeCell ref="I118:I119"/>
+    <mergeCell ref="J118:J119"/>
+    <mergeCell ref="K118:K119"/>
+    <mergeCell ref="I120"/>
+    <mergeCell ref="J120"/>
+    <mergeCell ref="K120"/>
+    <mergeCell ref="I121:I122"/>
+    <mergeCell ref="J121:J122"/>
+    <mergeCell ref="K121:K122"/>
+    <mergeCell ref="L121:L129"/>
+    <mergeCell ref="I123"/>
+    <mergeCell ref="J123"/>
+    <mergeCell ref="K123"/>
+    <mergeCell ref="I124"/>
+    <mergeCell ref="J124"/>
+    <mergeCell ref="K124"/>
+    <mergeCell ref="I125"/>
+    <mergeCell ref="J125"/>
+    <mergeCell ref="K125"/>
+    <mergeCell ref="I126"/>
+    <mergeCell ref="J126"/>
+    <mergeCell ref="K126"/>
+    <mergeCell ref="I127"/>
+    <mergeCell ref="J127"/>
+    <mergeCell ref="K127"/>
+    <mergeCell ref="I128"/>
+    <mergeCell ref="J128"/>
+    <mergeCell ref="K128"/>
+    <mergeCell ref="I129"/>
+    <mergeCell ref="J129"/>
+    <mergeCell ref="K129"/>
+    <mergeCell ref="I130:I132"/>
+    <mergeCell ref="J130:J132"/>
+    <mergeCell ref="K130:K132"/>
+    <mergeCell ref="L130:L149"/>
+    <mergeCell ref="I133:I134"/>
+    <mergeCell ref="J133:J134"/>
+    <mergeCell ref="K133:K134"/>
+    <mergeCell ref="I135:I136"/>
+    <mergeCell ref="J135:J136"/>
+    <mergeCell ref="K135:K136"/>
+    <mergeCell ref="I137:I138"/>
+    <mergeCell ref="J137:J138"/>
+    <mergeCell ref="K137:K138"/>
+    <mergeCell ref="I139"/>
+    <mergeCell ref="J139"/>
+    <mergeCell ref="K139"/>
+    <mergeCell ref="I140"/>
+    <mergeCell ref="J140"/>
+    <mergeCell ref="K140"/>
+    <mergeCell ref="I141"/>
+    <mergeCell ref="J141"/>
+    <mergeCell ref="K141"/>
+    <mergeCell ref="I142"/>
+    <mergeCell ref="J142"/>
+    <mergeCell ref="K142"/>
+    <mergeCell ref="I143"/>
+    <mergeCell ref="J143"/>
+    <mergeCell ref="K143"/>
+    <mergeCell ref="I144"/>
+    <mergeCell ref="J144"/>
+    <mergeCell ref="K144"/>
+    <mergeCell ref="I145:I146"/>
+    <mergeCell ref="J145:J146"/>
+    <mergeCell ref="K145:K146"/>
+    <mergeCell ref="J155"/>
+    <mergeCell ref="K155"/>
+    <mergeCell ref="I156"/>
+    <mergeCell ref="J156"/>
+    <mergeCell ref="K156"/>
+    <mergeCell ref="I157"/>
+    <mergeCell ref="J157"/>
+    <mergeCell ref="K157"/>
+    <mergeCell ref="I158"/>
+    <mergeCell ref="J158"/>
+    <mergeCell ref="I147:I148"/>
+    <mergeCell ref="J147:J148"/>
+    <mergeCell ref="K147:K148"/>
+    <mergeCell ref="I149"/>
+    <mergeCell ref="J149"/>
+    <mergeCell ref="K149"/>
+    <mergeCell ref="I150:I151"/>
+    <mergeCell ref="J150:J151"/>
+    <mergeCell ref="K150:K151"/>
+    <mergeCell ref="K158"/>
+    <mergeCell ref="K160"/>
+    <mergeCell ref="I161:I162"/>
+    <mergeCell ref="J161:J162"/>
+    <mergeCell ref="K161:K162"/>
+    <mergeCell ref="I163"/>
+    <mergeCell ref="J163"/>
+    <mergeCell ref="K163"/>
+    <mergeCell ref="I164:I165"/>
+    <mergeCell ref="J164:J165"/>
+    <mergeCell ref="K164:K165"/>
+    <mergeCell ref="I159"/>
+    <mergeCell ref="J159"/>
+    <mergeCell ref="K159"/>
+    <mergeCell ref="I160"/>
+    <mergeCell ref="J160"/>
+    <mergeCell ref="I166"/>
+    <mergeCell ref="J166"/>
+    <mergeCell ref="K166"/>
+    <mergeCell ref="I167:I168"/>
+    <mergeCell ref="J167:J168"/>
+    <mergeCell ref="K167:K168"/>
+    <mergeCell ref="I169"/>
+    <mergeCell ref="J169"/>
+    <mergeCell ref="K169"/>
+    <mergeCell ref="I170"/>
+    <mergeCell ref="J170"/>
+    <mergeCell ref="K170"/>
+    <mergeCell ref="I171:I175"/>
+    <mergeCell ref="J171:J175"/>
+    <mergeCell ref="K171:K175"/>
+    <mergeCell ref="L171:L178"/>
+    <mergeCell ref="I176"/>
+    <mergeCell ref="J176"/>
+    <mergeCell ref="K176"/>
+    <mergeCell ref="I177"/>
+    <mergeCell ref="J177"/>
+    <mergeCell ref="K177"/>
+    <mergeCell ref="I178"/>
+    <mergeCell ref="J178"/>
+    <mergeCell ref="K178"/>
+    <mergeCell ref="L150:L170"/>
+    <mergeCell ref="I152:I153"/>
+    <mergeCell ref="J152:J153"/>
+    <mergeCell ref="K152:K153"/>
+    <mergeCell ref="I154"/>
+    <mergeCell ref="J154"/>
+    <mergeCell ref="K154"/>
+    <mergeCell ref="I155"/>
+    <mergeCell ref="I179:I180"/>
+    <mergeCell ref="J179:J180"/>
+    <mergeCell ref="K179:K180"/>
+    <mergeCell ref="L179:L192"/>
+    <mergeCell ref="I181"/>
+    <mergeCell ref="J181"/>
+    <mergeCell ref="K181"/>
+    <mergeCell ref="I182:I186"/>
+    <mergeCell ref="J182:J186"/>
+    <mergeCell ref="K182:K186"/>
+    <mergeCell ref="I187"/>
+    <mergeCell ref="J187"/>
+    <mergeCell ref="K187"/>
+    <mergeCell ref="I188"/>
+    <mergeCell ref="J188"/>
+    <mergeCell ref="K188"/>
+    <mergeCell ref="I189"/>
+    <mergeCell ref="J189"/>
+    <mergeCell ref="K189"/>
+    <mergeCell ref="I190"/>
+    <mergeCell ref="J190"/>
+    <mergeCell ref="K190"/>
+    <mergeCell ref="I191"/>
+    <mergeCell ref="J191"/>
+    <mergeCell ref="K191"/>
+    <mergeCell ref="I192"/>
+    <mergeCell ref="J192"/>
+    <mergeCell ref="K192"/>
+    <mergeCell ref="I193:I194"/>
+    <mergeCell ref="J193:J194"/>
+    <mergeCell ref="K193:K194"/>
+    <mergeCell ref="L193:L210"/>
+    <mergeCell ref="I195"/>
+    <mergeCell ref="J195"/>
+    <mergeCell ref="K195"/>
+    <mergeCell ref="I196:I197"/>
+    <mergeCell ref="J196:J197"/>
+    <mergeCell ref="K196:K197"/>
+    <mergeCell ref="I198"/>
+    <mergeCell ref="J198"/>
+    <mergeCell ref="K198"/>
+    <mergeCell ref="I199:I200"/>
+    <mergeCell ref="J199:J200"/>
+    <mergeCell ref="K199:K200"/>
+    <mergeCell ref="I201"/>
+    <mergeCell ref="J201"/>
+    <mergeCell ref="K201"/>
+    <mergeCell ref="I202:I203"/>
+    <mergeCell ref="J202:J203"/>
+    <mergeCell ref="K202:K203"/>
+    <mergeCell ref="I204"/>
+    <mergeCell ref="J204"/>
+    <mergeCell ref="K204"/>
+    <mergeCell ref="I205"/>
+    <mergeCell ref="J205"/>
+    <mergeCell ref="K205"/>
+    <mergeCell ref="I206"/>
+    <mergeCell ref="J206"/>
+    <mergeCell ref="K206"/>
+    <mergeCell ref="I207"/>
+    <mergeCell ref="J207"/>
+    <mergeCell ref="K207"/>
+    <mergeCell ref="I208"/>
+    <mergeCell ref="J208"/>
+    <mergeCell ref="K208"/>
+    <mergeCell ref="I209:I210"/>
+    <mergeCell ref="J209:J210"/>
+    <mergeCell ref="K209:K210"/>
+    <mergeCell ref="I211:I212"/>
+    <mergeCell ref="J211:J212"/>
+    <mergeCell ref="K211:K212"/>
+    <mergeCell ref="L211:L221"/>
+    <mergeCell ref="I213:I214"/>
+    <mergeCell ref="J213:J214"/>
+    <mergeCell ref="K213:K214"/>
+    <mergeCell ref="I215"/>
+    <mergeCell ref="J215"/>
+    <mergeCell ref="K215"/>
+    <mergeCell ref="I216"/>
+    <mergeCell ref="J216"/>
+    <mergeCell ref="K216"/>
+    <mergeCell ref="I217"/>
+    <mergeCell ref="J217"/>
+    <mergeCell ref="K217"/>
+    <mergeCell ref="I218"/>
+    <mergeCell ref="J218"/>
+    <mergeCell ref="K218"/>
+    <mergeCell ref="I219:I220"/>
+    <mergeCell ref="J219:J220"/>
+    <mergeCell ref="K219:K220"/>
+    <mergeCell ref="I221"/>
+    <mergeCell ref="J221"/>
+    <mergeCell ref="K221"/>
+    <mergeCell ref="I222:I223"/>
+    <mergeCell ref="J222:J223"/>
+    <mergeCell ref="K222:K223"/>
+    <mergeCell ref="L222:L236"/>
+    <mergeCell ref="I224"/>
+    <mergeCell ref="J224"/>
+    <mergeCell ref="K224"/>
+    <mergeCell ref="I225"/>
+    <mergeCell ref="J225"/>
+    <mergeCell ref="K225"/>
+    <mergeCell ref="I226"/>
+    <mergeCell ref="J226"/>
+    <mergeCell ref="K226"/>
+    <mergeCell ref="I227"/>
+    <mergeCell ref="J227"/>
+    <mergeCell ref="K227"/>
+    <mergeCell ref="I228"/>
+    <mergeCell ref="J228"/>
+    <mergeCell ref="K228"/>
+    <mergeCell ref="I229"/>
+    <mergeCell ref="J229"/>
+    <mergeCell ref="K229"/>
+    <mergeCell ref="I230"/>
+    <mergeCell ref="J230"/>
+    <mergeCell ref="K230"/>
+    <mergeCell ref="I231"/>
+    <mergeCell ref="J231"/>
+    <mergeCell ref="K231"/>
+    <mergeCell ref="I232"/>
+    <mergeCell ref="J232"/>
+    <mergeCell ref="K232"/>
+    <mergeCell ref="I233"/>
+    <mergeCell ref="J233"/>
+    <mergeCell ref="K233"/>
+    <mergeCell ref="I234"/>
+    <mergeCell ref="J234"/>
+    <mergeCell ref="K234"/>
+    <mergeCell ref="I235"/>
+    <mergeCell ref="J235"/>
+    <mergeCell ref="K235"/>
+    <mergeCell ref="I236"/>
+    <mergeCell ref="J236"/>
+    <mergeCell ref="K236"/>
+    <mergeCell ref="I237:I238"/>
+    <mergeCell ref="J237:J238"/>
+    <mergeCell ref="K237:K238"/>
+    <mergeCell ref="L237:L248"/>
+    <mergeCell ref="I239:I240"/>
+    <mergeCell ref="J239:J240"/>
+    <mergeCell ref="K239:K240"/>
+    <mergeCell ref="I241"/>
+    <mergeCell ref="J241"/>
+    <mergeCell ref="K241"/>
+    <mergeCell ref="I242"/>
+    <mergeCell ref="J242"/>
+    <mergeCell ref="K242"/>
+    <mergeCell ref="I243"/>
+    <mergeCell ref="J243"/>
+    <mergeCell ref="K243"/>
+    <mergeCell ref="I244"/>
+    <mergeCell ref="J244"/>
+    <mergeCell ref="K244"/>
+    <mergeCell ref="I245"/>
+    <mergeCell ref="J245"/>
+    <mergeCell ref="K245"/>
+    <mergeCell ref="I246"/>
+    <mergeCell ref="J246"/>
+    <mergeCell ref="K246"/>
+    <mergeCell ref="I247"/>
+    <mergeCell ref="J247"/>
+    <mergeCell ref="K247"/>
+    <mergeCell ref="I248"/>
+    <mergeCell ref="J248"/>
+    <mergeCell ref="K248"/>
+    <mergeCell ref="I249:I250"/>
+    <mergeCell ref="J249:J250"/>
+    <mergeCell ref="K249:K250"/>
     <mergeCell ref="L249:L263"/>
     <mergeCell ref="I251"/>
     <mergeCell ref="J251"/>
@@ -15768,575 +16319,24 @@
     <mergeCell ref="K257"/>
     <mergeCell ref="I258"/>
     <mergeCell ref="J258"/>
-    <mergeCell ref="K246"/>
-    <mergeCell ref="I247"/>
-    <mergeCell ref="J247"/>
-    <mergeCell ref="K247"/>
-    <mergeCell ref="I248"/>
-    <mergeCell ref="J248"/>
-    <mergeCell ref="K248"/>
-    <mergeCell ref="I249:I250"/>
-    <mergeCell ref="J249:J250"/>
-    <mergeCell ref="K249:K250"/>
-    <mergeCell ref="I237:I238"/>
-    <mergeCell ref="J237:J238"/>
-    <mergeCell ref="K237:K238"/>
-    <mergeCell ref="L237:L248"/>
-    <mergeCell ref="I239:I240"/>
-    <mergeCell ref="J239:J240"/>
-    <mergeCell ref="K239:K240"/>
-    <mergeCell ref="I241"/>
-    <mergeCell ref="J241"/>
-    <mergeCell ref="K241"/>
-    <mergeCell ref="I242"/>
-    <mergeCell ref="J242"/>
-    <mergeCell ref="K242"/>
-    <mergeCell ref="I243"/>
-    <mergeCell ref="J243"/>
-    <mergeCell ref="K243"/>
-    <mergeCell ref="I244"/>
-    <mergeCell ref="J244"/>
-    <mergeCell ref="K244"/>
-    <mergeCell ref="I245"/>
-    <mergeCell ref="J245"/>
-    <mergeCell ref="K245"/>
-    <mergeCell ref="I246"/>
-    <mergeCell ref="J246"/>
-    <mergeCell ref="I234"/>
-    <mergeCell ref="J234"/>
-    <mergeCell ref="K234"/>
-    <mergeCell ref="I235"/>
-    <mergeCell ref="J235"/>
-    <mergeCell ref="K235"/>
-    <mergeCell ref="I236"/>
-    <mergeCell ref="J236"/>
-    <mergeCell ref="K236"/>
-    <mergeCell ref="J230"/>
-    <mergeCell ref="K230"/>
-    <mergeCell ref="I231"/>
-    <mergeCell ref="J231"/>
-    <mergeCell ref="K231"/>
-    <mergeCell ref="I232"/>
-    <mergeCell ref="J232"/>
-    <mergeCell ref="K232"/>
-    <mergeCell ref="I233"/>
-    <mergeCell ref="J233"/>
-    <mergeCell ref="K233"/>
-    <mergeCell ref="K221"/>
-    <mergeCell ref="I222:I223"/>
-    <mergeCell ref="J222:J223"/>
-    <mergeCell ref="K222:K223"/>
-    <mergeCell ref="L222:L236"/>
-    <mergeCell ref="I224"/>
-    <mergeCell ref="J224"/>
-    <mergeCell ref="K224"/>
-    <mergeCell ref="I225"/>
-    <mergeCell ref="J225"/>
-    <mergeCell ref="K225"/>
-    <mergeCell ref="I226"/>
-    <mergeCell ref="J226"/>
-    <mergeCell ref="K226"/>
-    <mergeCell ref="I227"/>
-    <mergeCell ref="J227"/>
-    <mergeCell ref="K227"/>
-    <mergeCell ref="I228"/>
-    <mergeCell ref="J228"/>
-    <mergeCell ref="K228"/>
-    <mergeCell ref="I229"/>
-    <mergeCell ref="J229"/>
-    <mergeCell ref="K229"/>
-    <mergeCell ref="I230"/>
-    <mergeCell ref="I211:I212"/>
-    <mergeCell ref="J211:J212"/>
-    <mergeCell ref="K211:K212"/>
-    <mergeCell ref="L211:L221"/>
-    <mergeCell ref="I213:I214"/>
-    <mergeCell ref="J213:J214"/>
-    <mergeCell ref="K213:K214"/>
-    <mergeCell ref="I215"/>
-    <mergeCell ref="J215"/>
-    <mergeCell ref="K215"/>
-    <mergeCell ref="I216"/>
-    <mergeCell ref="J216"/>
-    <mergeCell ref="K216"/>
-    <mergeCell ref="I217"/>
-    <mergeCell ref="J217"/>
-    <mergeCell ref="K217"/>
-    <mergeCell ref="I218"/>
-    <mergeCell ref="J218"/>
-    <mergeCell ref="K218"/>
-    <mergeCell ref="I219:I220"/>
-    <mergeCell ref="J219:J220"/>
-    <mergeCell ref="K219:K220"/>
-    <mergeCell ref="I221"/>
-    <mergeCell ref="J221"/>
-    <mergeCell ref="I207"/>
-    <mergeCell ref="J207"/>
-    <mergeCell ref="K207"/>
-    <mergeCell ref="I208"/>
-    <mergeCell ref="J208"/>
-    <mergeCell ref="K208"/>
-    <mergeCell ref="I209:I210"/>
-    <mergeCell ref="J209:J210"/>
-    <mergeCell ref="K209:K210"/>
-    <mergeCell ref="J202:J203"/>
-    <mergeCell ref="K202:K203"/>
-    <mergeCell ref="I204"/>
-    <mergeCell ref="J204"/>
-    <mergeCell ref="K204"/>
-    <mergeCell ref="I205"/>
-    <mergeCell ref="J205"/>
-    <mergeCell ref="K205"/>
-    <mergeCell ref="I206"/>
-    <mergeCell ref="J206"/>
-    <mergeCell ref="K206"/>
-    <mergeCell ref="K191"/>
-    <mergeCell ref="I192"/>
-    <mergeCell ref="J192"/>
-    <mergeCell ref="K192"/>
-    <mergeCell ref="I193:I194"/>
-    <mergeCell ref="J193:J194"/>
-    <mergeCell ref="K193:K194"/>
-    <mergeCell ref="L193:L210"/>
-    <mergeCell ref="I195"/>
-    <mergeCell ref="J195"/>
-    <mergeCell ref="K195"/>
-    <mergeCell ref="I196:I197"/>
-    <mergeCell ref="J196:J197"/>
-    <mergeCell ref="K196:K197"/>
-    <mergeCell ref="I198"/>
-    <mergeCell ref="J198"/>
-    <mergeCell ref="K198"/>
-    <mergeCell ref="I199:I200"/>
-    <mergeCell ref="J199:J200"/>
-    <mergeCell ref="K199:K200"/>
-    <mergeCell ref="I201"/>
-    <mergeCell ref="J201"/>
-    <mergeCell ref="K201"/>
-    <mergeCell ref="I202:I203"/>
-    <mergeCell ref="I179:I180"/>
-    <mergeCell ref="J179:J180"/>
-    <mergeCell ref="K179:K180"/>
-    <mergeCell ref="L179:L192"/>
-    <mergeCell ref="I181"/>
-    <mergeCell ref="J181"/>
-    <mergeCell ref="K181"/>
-    <mergeCell ref="I182:I186"/>
-    <mergeCell ref="J182:J186"/>
-    <mergeCell ref="K182:K186"/>
-    <mergeCell ref="I187"/>
-    <mergeCell ref="J187"/>
-    <mergeCell ref="K187"/>
-    <mergeCell ref="I188"/>
-    <mergeCell ref="J188"/>
-    <mergeCell ref="K188"/>
-    <mergeCell ref="I189"/>
-    <mergeCell ref="J189"/>
-    <mergeCell ref="K189"/>
-    <mergeCell ref="I190"/>
-    <mergeCell ref="J190"/>
-    <mergeCell ref="K190"/>
-    <mergeCell ref="I191"/>
-    <mergeCell ref="J191"/>
-    <mergeCell ref="I170"/>
-    <mergeCell ref="J170"/>
-    <mergeCell ref="K170"/>
-    <mergeCell ref="I171:I175"/>
-    <mergeCell ref="J171:J175"/>
-    <mergeCell ref="K171:K175"/>
-    <mergeCell ref="L171:L178"/>
-    <mergeCell ref="I176"/>
-    <mergeCell ref="J176"/>
-    <mergeCell ref="K176"/>
-    <mergeCell ref="I177"/>
-    <mergeCell ref="J177"/>
-    <mergeCell ref="K177"/>
-    <mergeCell ref="I178"/>
-    <mergeCell ref="J178"/>
-    <mergeCell ref="K178"/>
-    <mergeCell ref="L150:L170"/>
-    <mergeCell ref="I152:I153"/>
-    <mergeCell ref="J152:J153"/>
-    <mergeCell ref="K152:K153"/>
-    <mergeCell ref="I154"/>
-    <mergeCell ref="J154"/>
-    <mergeCell ref="K154"/>
-    <mergeCell ref="I155"/>
-    <mergeCell ref="I166"/>
-    <mergeCell ref="J166"/>
-    <mergeCell ref="K166"/>
-    <mergeCell ref="I167:I168"/>
-    <mergeCell ref="J167:J168"/>
-    <mergeCell ref="K167:K168"/>
-    <mergeCell ref="I169"/>
-    <mergeCell ref="J169"/>
-    <mergeCell ref="K169"/>
-    <mergeCell ref="K158"/>
-    <mergeCell ref="K160"/>
-    <mergeCell ref="I161:I162"/>
-    <mergeCell ref="J161:J162"/>
-    <mergeCell ref="K161:K162"/>
-    <mergeCell ref="I163"/>
-    <mergeCell ref="J163"/>
-    <mergeCell ref="K163"/>
-    <mergeCell ref="I164:I165"/>
-    <mergeCell ref="J164:J165"/>
-    <mergeCell ref="K164:K165"/>
-    <mergeCell ref="I159"/>
-    <mergeCell ref="J159"/>
-    <mergeCell ref="K159"/>
-    <mergeCell ref="I160"/>
-    <mergeCell ref="J160"/>
-    <mergeCell ref="I147:I148"/>
-    <mergeCell ref="J147:J148"/>
-    <mergeCell ref="K147:K148"/>
-    <mergeCell ref="I149"/>
-    <mergeCell ref="J149"/>
-    <mergeCell ref="K149"/>
-    <mergeCell ref="I150:I151"/>
-    <mergeCell ref="J150:J151"/>
-    <mergeCell ref="K150:K151"/>
-    <mergeCell ref="J155"/>
-    <mergeCell ref="K155"/>
-    <mergeCell ref="I156"/>
-    <mergeCell ref="J156"/>
-    <mergeCell ref="K156"/>
-    <mergeCell ref="I157"/>
-    <mergeCell ref="J157"/>
-    <mergeCell ref="K157"/>
-    <mergeCell ref="I158"/>
-    <mergeCell ref="J158"/>
-    <mergeCell ref="K142"/>
-    <mergeCell ref="I143"/>
-    <mergeCell ref="J143"/>
-    <mergeCell ref="K143"/>
-    <mergeCell ref="I144"/>
-    <mergeCell ref="J144"/>
-    <mergeCell ref="K144"/>
-    <mergeCell ref="I145:I146"/>
-    <mergeCell ref="J145:J146"/>
-    <mergeCell ref="K145:K146"/>
-    <mergeCell ref="I130:I132"/>
-    <mergeCell ref="J130:J132"/>
-    <mergeCell ref="K130:K132"/>
-    <mergeCell ref="L130:L149"/>
-    <mergeCell ref="I133:I134"/>
-    <mergeCell ref="J133:J134"/>
-    <mergeCell ref="K133:K134"/>
-    <mergeCell ref="I135:I136"/>
-    <mergeCell ref="J135:J136"/>
-    <mergeCell ref="K135:K136"/>
-    <mergeCell ref="I137:I138"/>
-    <mergeCell ref="J137:J138"/>
-    <mergeCell ref="K137:K138"/>
-    <mergeCell ref="I139"/>
-    <mergeCell ref="J139"/>
-    <mergeCell ref="K139"/>
-    <mergeCell ref="I140"/>
-    <mergeCell ref="J140"/>
-    <mergeCell ref="K140"/>
-    <mergeCell ref="I141"/>
-    <mergeCell ref="J141"/>
-    <mergeCell ref="K141"/>
-    <mergeCell ref="I142"/>
-    <mergeCell ref="J142"/>
-    <mergeCell ref="L121:L129"/>
-    <mergeCell ref="I123"/>
-    <mergeCell ref="J123"/>
-    <mergeCell ref="K123"/>
-    <mergeCell ref="I124"/>
-    <mergeCell ref="J124"/>
-    <mergeCell ref="K124"/>
-    <mergeCell ref="I125"/>
-    <mergeCell ref="J125"/>
-    <mergeCell ref="K125"/>
-    <mergeCell ref="I126"/>
-    <mergeCell ref="J126"/>
-    <mergeCell ref="K126"/>
-    <mergeCell ref="I127"/>
-    <mergeCell ref="J127"/>
-    <mergeCell ref="K127"/>
-    <mergeCell ref="I128"/>
-    <mergeCell ref="J128"/>
-    <mergeCell ref="K128"/>
-    <mergeCell ref="I129"/>
-    <mergeCell ref="J129"/>
-    <mergeCell ref="K129"/>
-    <mergeCell ref="I118:I119"/>
-    <mergeCell ref="J118:J119"/>
-    <mergeCell ref="K118:K119"/>
-    <mergeCell ref="I120"/>
-    <mergeCell ref="J120"/>
-    <mergeCell ref="K120"/>
-    <mergeCell ref="I121:I122"/>
-    <mergeCell ref="J121:J122"/>
-    <mergeCell ref="K121:K122"/>
-    <mergeCell ref="I115"/>
-    <mergeCell ref="J115"/>
-    <mergeCell ref="K115"/>
-    <mergeCell ref="I116"/>
-    <mergeCell ref="J116"/>
-    <mergeCell ref="K116"/>
-    <mergeCell ref="I117"/>
-    <mergeCell ref="J117"/>
-    <mergeCell ref="K117"/>
-    <mergeCell ref="I112"/>
-    <mergeCell ref="J112"/>
-    <mergeCell ref="K112"/>
-    <mergeCell ref="I113"/>
-    <mergeCell ref="J113"/>
-    <mergeCell ref="K113"/>
-    <mergeCell ref="I114"/>
-    <mergeCell ref="J114"/>
-    <mergeCell ref="K114"/>
-    <mergeCell ref="K107:K108"/>
-    <mergeCell ref="I109"/>
-    <mergeCell ref="J109"/>
-    <mergeCell ref="K109"/>
-    <mergeCell ref="I110"/>
-    <mergeCell ref="J110"/>
-    <mergeCell ref="K110"/>
-    <mergeCell ref="I111"/>
-    <mergeCell ref="J111"/>
-    <mergeCell ref="K111"/>
-    <mergeCell ref="I97:I98"/>
-    <mergeCell ref="J97:J98"/>
-    <mergeCell ref="K97:K98"/>
-    <mergeCell ref="L97:L120"/>
-    <mergeCell ref="I99"/>
-    <mergeCell ref="J99"/>
-    <mergeCell ref="K99"/>
-    <mergeCell ref="I100"/>
-    <mergeCell ref="J100"/>
-    <mergeCell ref="K100"/>
-    <mergeCell ref="I101"/>
-    <mergeCell ref="J101"/>
-    <mergeCell ref="K101"/>
-    <mergeCell ref="I102:I103"/>
-    <mergeCell ref="J102:J103"/>
-    <mergeCell ref="K102:K103"/>
-    <mergeCell ref="I104:I105"/>
-    <mergeCell ref="J104:J105"/>
-    <mergeCell ref="K104:K105"/>
-    <mergeCell ref="I106"/>
-    <mergeCell ref="J106"/>
-    <mergeCell ref="K106"/>
-    <mergeCell ref="I107:I108"/>
-    <mergeCell ref="J107:J108"/>
-    <mergeCell ref="I94"/>
-    <mergeCell ref="J94"/>
-    <mergeCell ref="K94"/>
-    <mergeCell ref="I95"/>
-    <mergeCell ref="J95"/>
-    <mergeCell ref="K95"/>
-    <mergeCell ref="I96"/>
-    <mergeCell ref="J96"/>
-    <mergeCell ref="K96"/>
-    <mergeCell ref="K89:K90"/>
-    <mergeCell ref="I91"/>
-    <mergeCell ref="J91"/>
-    <mergeCell ref="K91"/>
-    <mergeCell ref="I92"/>
-    <mergeCell ref="J92"/>
-    <mergeCell ref="K92"/>
-    <mergeCell ref="I93"/>
-    <mergeCell ref="J93"/>
-    <mergeCell ref="K93"/>
-    <mergeCell ref="L74:L96"/>
-    <mergeCell ref="I77:I79"/>
-    <mergeCell ref="J77:J79"/>
-    <mergeCell ref="K77:K79"/>
-    <mergeCell ref="I80:I81"/>
-    <mergeCell ref="J80:J81"/>
-    <mergeCell ref="K80:K81"/>
-    <mergeCell ref="I82:I83"/>
-    <mergeCell ref="J82:J83"/>
-    <mergeCell ref="K82:K83"/>
-    <mergeCell ref="I84"/>
-    <mergeCell ref="J84"/>
-    <mergeCell ref="K84"/>
-    <mergeCell ref="I85"/>
-    <mergeCell ref="J85"/>
-    <mergeCell ref="K85"/>
-    <mergeCell ref="I86:I87"/>
-    <mergeCell ref="J86:J87"/>
-    <mergeCell ref="K86:K87"/>
-    <mergeCell ref="I88"/>
-    <mergeCell ref="J88"/>
-    <mergeCell ref="K88"/>
-    <mergeCell ref="I89:I90"/>
-    <mergeCell ref="J89:J90"/>
-    <mergeCell ref="I72"/>
-    <mergeCell ref="J72"/>
-    <mergeCell ref="K72"/>
-    <mergeCell ref="I73"/>
-    <mergeCell ref="J73"/>
-    <mergeCell ref="K73"/>
-    <mergeCell ref="I74:I76"/>
-    <mergeCell ref="J74:J76"/>
-    <mergeCell ref="K74:K76"/>
-    <mergeCell ref="I69"/>
-    <mergeCell ref="J69"/>
-    <mergeCell ref="K69"/>
-    <mergeCell ref="I70"/>
-    <mergeCell ref="J70"/>
-    <mergeCell ref="K70"/>
-    <mergeCell ref="I71"/>
-    <mergeCell ref="J71"/>
-    <mergeCell ref="K71"/>
-    <mergeCell ref="I66"/>
-    <mergeCell ref="J66"/>
-    <mergeCell ref="K66"/>
-    <mergeCell ref="I67"/>
-    <mergeCell ref="J67"/>
-    <mergeCell ref="K67"/>
-    <mergeCell ref="I68"/>
-    <mergeCell ref="J68"/>
-    <mergeCell ref="K68"/>
-    <mergeCell ref="I63"/>
-    <mergeCell ref="J63"/>
-    <mergeCell ref="K63"/>
-    <mergeCell ref="I64"/>
-    <mergeCell ref="J64"/>
-    <mergeCell ref="K64"/>
-    <mergeCell ref="I65"/>
-    <mergeCell ref="J65"/>
-    <mergeCell ref="K65"/>
-    <mergeCell ref="J58"/>
-    <mergeCell ref="K58"/>
-    <mergeCell ref="I59"/>
-    <mergeCell ref="J59"/>
-    <mergeCell ref="K59"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="J60:J61"/>
-    <mergeCell ref="K60:K61"/>
-    <mergeCell ref="I62"/>
-    <mergeCell ref="J62"/>
-    <mergeCell ref="K62"/>
-    <mergeCell ref="K48:K49"/>
-    <mergeCell ref="I50"/>
-    <mergeCell ref="J50"/>
-    <mergeCell ref="K50"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="J51:J52"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="L51:L73"/>
-    <mergeCell ref="I53"/>
-    <mergeCell ref="J53"/>
-    <mergeCell ref="K53"/>
-    <mergeCell ref="I54"/>
-    <mergeCell ref="J54"/>
-    <mergeCell ref="K54"/>
-    <mergeCell ref="I55"/>
-    <mergeCell ref="J55"/>
-    <mergeCell ref="K55"/>
-    <mergeCell ref="I56"/>
-    <mergeCell ref="J56"/>
-    <mergeCell ref="K56"/>
-    <mergeCell ref="I57"/>
-    <mergeCell ref="J57"/>
-    <mergeCell ref="K57"/>
-    <mergeCell ref="I58"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="L40:L50"/>
-    <mergeCell ref="I42"/>
-    <mergeCell ref="J42"/>
-    <mergeCell ref="K42"/>
-    <mergeCell ref="I43"/>
-    <mergeCell ref="J43"/>
-    <mergeCell ref="K43"/>
-    <mergeCell ref="I44"/>
-    <mergeCell ref="J44"/>
-    <mergeCell ref="K44"/>
-    <mergeCell ref="I45"/>
-    <mergeCell ref="J45"/>
-    <mergeCell ref="K45"/>
-    <mergeCell ref="I46"/>
-    <mergeCell ref="J46"/>
-    <mergeCell ref="K46"/>
-    <mergeCell ref="I47"/>
-    <mergeCell ref="J47"/>
-    <mergeCell ref="K47"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="J48:J49"/>
-    <mergeCell ref="K32:K34"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="I39"/>
-    <mergeCell ref="J39"/>
-    <mergeCell ref="K39"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="L22:L39"/>
-    <mergeCell ref="I24"/>
-    <mergeCell ref="J24"/>
-    <mergeCell ref="K24"/>
-    <mergeCell ref="I25"/>
-    <mergeCell ref="J25"/>
-    <mergeCell ref="K25"/>
-    <mergeCell ref="I26"/>
-    <mergeCell ref="J26"/>
-    <mergeCell ref="K26"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="J27:J29"/>
-    <mergeCell ref="K27:K29"/>
-    <mergeCell ref="I30"/>
-    <mergeCell ref="J30"/>
-    <mergeCell ref="K30"/>
-    <mergeCell ref="I31"/>
-    <mergeCell ref="J31"/>
-    <mergeCell ref="K31"/>
-    <mergeCell ref="I32:I34"/>
-    <mergeCell ref="J32:J34"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L21"/>
-    <mergeCell ref="I13"/>
-    <mergeCell ref="J13"/>
-    <mergeCell ref="K13"/>
-    <mergeCell ref="I14"/>
-    <mergeCell ref="J14"/>
-    <mergeCell ref="K14"/>
-    <mergeCell ref="I15"/>
-    <mergeCell ref="J15"/>
-    <mergeCell ref="K15"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L10"/>
-    <mergeCell ref="I5"/>
-    <mergeCell ref="J5"/>
-    <mergeCell ref="K5"/>
-    <mergeCell ref="I6"/>
-    <mergeCell ref="J6"/>
-    <mergeCell ref="K6"/>
-    <mergeCell ref="I7"/>
-    <mergeCell ref="J7"/>
-    <mergeCell ref="K7"/>
-    <mergeCell ref="I8"/>
-    <mergeCell ref="J8"/>
-    <mergeCell ref="K8"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="I262"/>
+    <mergeCell ref="J262"/>
+    <mergeCell ref="K262"/>
+    <mergeCell ref="I263"/>
+    <mergeCell ref="J263"/>
+    <mergeCell ref="K263"/>
+    <mergeCell ref="A264:D264"/>
+    <mergeCell ref="A265:D265"/>
+    <mergeCell ref="K258"/>
+    <mergeCell ref="I259"/>
+    <mergeCell ref="J259"/>
+    <mergeCell ref="K259"/>
+    <mergeCell ref="I260"/>
+    <mergeCell ref="J260"/>
+    <mergeCell ref="K260"/>
+    <mergeCell ref="I261"/>
+    <mergeCell ref="J261"/>
+    <mergeCell ref="K261"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Response not selected" error="Please select a response from the list" prompt="Select a response" sqref="C3:C263" xr:uid="{00000000-0002-0000-0100-000000000000}">
